--- a/data/sheets/feb.xlsx
+++ b/data/sheets/feb.xlsx
@@ -577,11 +577,6 @@
       <c r="K4" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>2020-02-03 15:06:58</t>
@@ -613,11 +608,6 @@
           <t>N45HD</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>2020-02-03 20:55:31</t>
@@ -705,11 +695,6 @@
       <c r="K6" t="n">
         <v>1175</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>2020-02-09 23:27:51</t>
@@ -741,11 +726,6 @@
           <t>N45HD</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>2020-02-10 18:55:17</t>
@@ -805,11 +785,6 @@
           <t>N45HD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>2020-02-11 00:27:51</t>
@@ -897,11 +872,6 @@
       <c r="K9" t="n">
         <v>1325</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>2020-02-17 14:33:11</t>
@@ -933,11 +903,6 @@
           <t>N45HD</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>2020-02-17 21:56:11</t>
@@ -1025,11 +990,6 @@
       <c r="K11" t="n">
         <v>1175</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>2020-02-24 13:55:34</t>
@@ -1061,11 +1021,6 @@
           <t>N45HD</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>2020-02-24 19:02:04</t>
@@ -1226,11 +1181,6 @@
       <c r="K14" t="n">
         <v>1675</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>2020-02-25 12:48:27</t>
@@ -1262,11 +1212,6 @@
           <t>N45HD</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>2020-02-26 15:52:30</t>
@@ -1691,11 +1636,6 @@
           <t>N240JJ</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>2020-02-23 22:28:09</t>
@@ -1974,11 +1914,6 @@
           <t>N27AY</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>2020-02-12 21:52:13</t>
@@ -2038,11 +1973,6 @@
           <t>N27AY</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>2020-02-18 22:26:41</t>
@@ -2102,11 +2032,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>2020-02-05 13:15:51</t>
@@ -2239,11 +2164,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>2020-02-06 14:24:34</t>
@@ -2376,11 +2296,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>2020-02-17 17:17:19</t>
@@ -2440,11 +2355,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>2020-02-19 14:07:29</t>
@@ -2532,11 +2442,6 @@
       <c r="K33" t="n">
         <v>525</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>2020-02-20 20:53:59</t>
@@ -2568,11 +2473,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>2020-02-21 17:13:34</t>
@@ -2632,11 +2532,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>2020-02-21 22:37:50</t>
@@ -2696,11 +2591,6 @@
           <t>N321BF</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>2020-02-25 12:21:47</t>
@@ -2715,11 +2605,6 @@
       <c r="K36" t="n">
         <v>18175</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>2020-02-25 13:46:34</t>
@@ -2751,11 +2636,6 @@
           <t>N391YS</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>2020-02-06 20:54:37</t>
@@ -2888,11 +2768,6 @@
           <t>N391YS</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>2020-02-07 18:00:38</t>
@@ -2952,11 +2827,6 @@
           <t>N391YS</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>2020-02-23 21:51:24</t>
@@ -2971,11 +2841,6 @@
       <c r="K40" t="n">
         <v>7099.999999999999</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
           <t>2020-02-23 23:04:59</t>
@@ -3445,11 +3310,6 @@
           <t>N177FF</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>2020-02-11 03:01:36</t>
@@ -3856,11 +3716,6 @@
           <t>N14QB</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>2020-02-18 17:30:38</t>
@@ -3920,11 +3775,6 @@
           <t>N356JH</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>2020-02-07 13:11:36</t>
@@ -4057,11 +3907,6 @@
           <t>N356JH</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>2020-02-22 20:30:45</t>
@@ -4121,11 +3966,6 @@
           <t>N356JH</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>2020-02-25 16:58:35</t>
@@ -4185,11 +4025,6 @@
           <t>N81WL</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>2020-02-11 15:52:13</t>
@@ -4249,11 +4084,6 @@
           <t>N81WL</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>2020-02-19 13:39:54</t>
@@ -4268,11 +4098,6 @@
       <c r="K59" t="n">
         <v>13725</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>2020-02-19 14:00:42</t>
@@ -4304,11 +4129,6 @@
           <t>N81WL</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>2020-02-20 19:49:00</t>
@@ -4368,11 +4188,6 @@
           <t>N580JH</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>2020-02-02 12:33:59</t>
@@ -4505,11 +4320,6 @@
           <t>N580JH</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>2020-02-08 23:19:20</t>
@@ -4569,11 +4379,6 @@
           <t>N580JH</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>2020-02-09 01:13:31</t>
@@ -4852,11 +4657,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>2020-02-05 13:53:36</t>
@@ -4871,11 +4671,6 @@
       <c r="K68" t="n">
         <v>15800</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M68" t="inlineStr">
         <is>
           <t>2020-02-05 15:24:45</t>
@@ -4907,11 +4702,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>2020-02-05 21:46:39</t>
@@ -4926,11 +4716,6 @@
       <c r="K69" t="n">
         <v>31125</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
           <t>2020-02-05 22:28:20</t>
@@ -4962,11 +4747,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>2020-02-06 12:45:37</t>
@@ -5200,11 +4980,6 @@
       <c r="K73" t="n">
         <v>1325</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
           <t>2020-02-07 14:44:53</t>
@@ -5236,11 +5011,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>2020-02-07 23:11:03</t>
@@ -5300,11 +5070,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>2020-02-10 14:22:59</t>
@@ -5437,11 +5202,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>2020-02-11 23:12:59</t>
@@ -5456,11 +5216,6 @@
       <c r="K77" t="n">
         <v>15075</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
           <t>2020-02-12 00:28:26</t>
@@ -5492,11 +5247,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>2020-02-12 14:23:42</t>
@@ -5584,11 +5334,6 @@
       <c r="K79" t="n">
         <v>1400</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
           <t>2020-02-13 00:56:20</t>
@@ -5620,11 +5365,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>2020-02-13 14:17:21</t>
@@ -5757,11 +5497,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>2020-02-16 21:14:42</t>
@@ -5849,11 +5584,6 @@
       <c r="K83" t="n">
         <v>50</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
           <t>2020-02-17 13:38:54</t>
@@ -5885,11 +5615,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>2020-02-17 22:39:18</t>
@@ -6022,11 +5747,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>2020-02-18 21:45:18</t>
@@ -6114,11 +5834,6 @@
       <c r="K87" t="n">
         <v>-50</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
           <t>2020-02-19 14:02:13</t>
@@ -6251,11 +5966,6 @@
       <c r="K89" t="n">
         <v>150</v>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
           <t>2020-02-20 13:36:07</t>
@@ -6287,11 +5997,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>2020-02-20 16:35:34</t>
@@ -6497,11 +6202,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>2020-02-26 15:32:35</t>
@@ -6516,11 +6216,6 @@
       <c r="K93" t="n">
         <v>19975</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M93" t="inlineStr">
         <is>
           <t>2020-02-26 17:10:28</t>
@@ -6552,11 +6247,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>2020-02-26 18:24:09</t>
@@ -6616,11 +6306,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>2020-02-27 11:36:22</t>
@@ -6708,11 +6393,6 @@
       <c r="K96" t="n">
         <v>13875</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M96" t="inlineStr">
         <is>
           <t>2020-02-27 13:08:29</t>
@@ -6744,11 +6424,6 @@
           <t>N916BD</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>2020-02-27 17:58:27</t>
@@ -6763,11 +6438,6 @@
       <c r="K97" t="n">
         <v>12775</v>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M97" t="inlineStr">
         <is>
           <t>2020-02-27 19:31:25</t>
@@ -6827,11 +6497,6 @@
       <c r="K98" t="n">
         <v>1475</v>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M98" t="inlineStr">
         <is>
           <t>2020-02-05 23:17:57</t>
@@ -6863,11 +6528,6 @@
           <t>N428CJ</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>2020-02-06 05:58:54</t>
@@ -7292,11 +6952,6 @@
           <t>N85WT</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>2020-02-11 21:03:11</t>
@@ -7575,11 +7230,6 @@
           <t>N85WT</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>2020-02-18 18:14:10</t>
@@ -7594,11 +7244,6 @@
       <c r="K109" t="n">
         <v>13500</v>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M109" t="inlineStr">
         <is>
           <t>2020-02-18 18:42:10</t>
@@ -7630,11 +7275,6 @@
           <t>N85WT</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>2020-02-18 22:35:18</t>
@@ -7694,11 +7334,6 @@
           <t>N295JM</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>2020-02-03 13:04:26</t>
@@ -7786,11 +7421,6 @@
       <c r="K112" t="n">
         <v>1000</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M112" t="inlineStr">
         <is>
           <t>2020-02-03 15:11:11</t>
@@ -7822,11 +7452,6 @@
           <t>N295JM</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>2020-02-04 14:46:09</t>
@@ -7886,11 +7511,6 @@
           <t>N295JM</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>2020-02-09 17:25:28</t>
@@ -7950,11 +7570,6 @@
           <t>N295JM</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>2020-02-29 14:03:42</t>
@@ -8014,11 +7629,6 @@
           <t>N850CP</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>2020-02-15 00:00:43</t>
@@ -8224,11 +7834,6 @@
           <t>N850CP</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>2020-02-20 02:46:57</t>
@@ -8535,11 +8140,6 @@
       <c r="K123" t="n">
         <v>5899.999999999999</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M123" t="inlineStr">
         <is>
           <t>2020-02-27 18:55:37</t>
@@ -8571,11 +8171,6 @@
           <t>N850CP</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>2020-02-28 02:40:24</t>
@@ -8773,11 +8368,6 @@
       <c r="K127" t="n">
         <v>1075</v>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M127" t="inlineStr">
         <is>
           <t>2020-02-09 14:01:07</t>
@@ -8809,11 +8399,6 @@
           <t>N501DJ</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>2020-02-09 16:06:14</t>
@@ -8941,24 +8526,9 @@
           <t>CITT35</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>2020-02-26 20:15:54</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -8978,24 +8548,9 @@
           <t>CITT36</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>2020-02-27 21:33:40</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9020,11 +8575,6 @@
           <t>N551CN</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>2020-02-03 14:07:08</t>
@@ -9663,11 +9213,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9700,11 +9245,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>KSCK</t>
@@ -9737,11 +9277,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9774,11 +9309,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9811,11 +9341,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9848,11 +9373,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9885,11 +9405,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9922,11 +9437,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9959,11 +9469,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -9996,11 +9501,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10033,11 +9533,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>KSMO</t>
@@ -10070,11 +9565,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>KAVX</t>
@@ -10107,11 +9597,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10144,11 +9629,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>CA39</t>
@@ -10181,11 +9661,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10218,11 +9693,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10255,11 +9725,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>KVCB</t>
@@ -10292,11 +9757,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10329,11 +9789,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>KC83</t>
@@ -10366,11 +9821,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10403,11 +9853,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>KTVL</t>
@@ -10440,11 +9885,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10477,11 +9917,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>KSTS</t>
@@ -10514,11 +9949,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10551,11 +9981,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10588,11 +10013,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10625,16 +10045,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>2020-02-18 01:21:00</t>
@@ -10662,11 +10072,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10699,11 +10104,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10736,11 +10136,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>KAPC</t>
@@ -10773,11 +10168,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10810,11 +10200,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10847,11 +10232,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>KSAC</t>
@@ -10884,11 +10264,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10921,11 +10296,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10958,11 +10328,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -10995,11 +10360,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -11032,11 +10392,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>KO22</t>
@@ -11069,11 +10424,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -11106,11 +10456,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -11143,11 +10488,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>KAUN</t>
@@ -11180,11 +10520,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -11217,11 +10552,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>4CA8</t>
@@ -11254,11 +10584,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -11291,11 +10616,6 @@
           <t>N2933A</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>KLVK</t>
@@ -11333,11 +10653,6 @@
           <t>N450HQ</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>2020-02-02 18:27:56</t>
@@ -11835,11 +11150,6 @@
           <t>N450HQ</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>2020-02-24 23:14:08</t>
@@ -11927,11 +11237,6 @@
       <c r="K194" t="n">
         <v>2050</v>
       </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M194" t="inlineStr">
         <is>
           <t>2020-02-29 20:32:34</t>
@@ -11963,11 +11268,6 @@
           <t>N421M</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>2020-02-12 14:05:36</t>
@@ -12027,11 +11327,6 @@
           <t>N421M</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>2020-02-23 19:53:10</t>
@@ -12091,11 +11386,6 @@
           <t>N421M</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>2020-02-26 21:04:07</t>
@@ -12110,11 +11400,6 @@
       <c r="K197" t="n">
         <v>17550</v>
       </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M197" t="inlineStr">
         <is>
           <t>2020-02-26 22:27:03</t>
@@ -12365,11 +11650,6 @@
           <t>N850JP</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>2020-02-21 22:47:51</t>
@@ -12384,11 +11664,6 @@
       <c r="K201" t="n">
         <v>13350</v>
       </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M201" t="inlineStr">
         <is>
           <t>2020-02-22 00:13:15</t>
@@ -12521,11 +11796,6 @@
       <c r="K203" t="n">
         <v>5575</v>
       </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M203" t="inlineStr">
         <is>
           <t>2020-02-24 19:27:58</t>
@@ -12630,11 +11900,6 @@
           <t>N600AT</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>2020-02-03 15:24:24</t>
@@ -12694,11 +11959,6 @@
           <t>N600AT</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>2020-02-05 19:17:05</t>
@@ -12758,11 +12018,6 @@
           <t>N600AT</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>2020-02-12 19:04:21</t>
@@ -12822,11 +12077,6 @@
           <t>N600AT</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>2020-02-27 12:57:24</t>
@@ -13498,11 +12748,6 @@
       <c r="K217" t="n">
         <v>3525</v>
       </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M217" t="inlineStr">
         <is>
           <t>2020-02-10 13:23:45</t>
@@ -13534,11 +12779,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>2020-02-10 14:17:35</t>
@@ -13626,11 +12866,6 @@
       <c r="K219" t="n">
         <v>5475</v>
       </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M219" t="inlineStr">
         <is>
           <t>2020-02-10 21:33:42</t>
@@ -13662,11 +12897,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>2020-02-11 13:57:07</t>
@@ -13726,11 +12956,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>2020-02-11 20:57:00</t>
@@ -13790,11 +13015,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>2020-02-12 13:45:37</t>
@@ -13927,11 +13147,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>2020-02-12 23:02:33</t>
@@ -14283,11 +13498,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>2020-02-17 14:30:39</t>
@@ -14347,11 +13557,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>2020-02-17 21:23:35</t>
@@ -14776,11 +13981,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E236" t="inlineStr">
         <is>
           <t>2020-02-24 20:34:06</t>
@@ -14913,11 +14113,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>2020-02-26 14:53:21</t>
@@ -14932,11 +14127,6 @@
       <c r="K238" t="n">
         <v>23950</v>
       </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M238" t="inlineStr">
         <is>
           <t>2020-02-26 15:21:26</t>
@@ -14968,11 +14158,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E239" t="inlineStr">
         <is>
           <t>2020-02-26 16:03:34</t>
@@ -14987,11 +14172,6 @@
       <c r="K239" t="n">
         <v>16125</v>
       </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M239" t="inlineStr">
         <is>
           <t>2020-02-26 16:24:28</t>
@@ -15096,11 +14276,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>2020-02-27 14:32:45</t>
@@ -15160,11 +14335,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>2020-02-27 17:24:39</t>
@@ -15224,11 +14394,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E243" t="inlineStr">
         <is>
           <t>2020-02-27 18:33:32</t>
@@ -15288,11 +14453,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
           <t>2020-02-27 21:10:44</t>
@@ -15352,11 +14512,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>2020-02-27 22:10:01</t>
@@ -15444,11 +14599,6 @@
       <c r="K246" t="n">
         <v>3800</v>
       </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M246" t="inlineStr">
         <is>
           <t>2020-02-28 14:17:33</t>
@@ -15553,11 +14703,6 @@
           <t>N1848T</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>2020-02-28 19:59:10</t>
@@ -15572,11 +14717,6 @@
       <c r="K248" t="n">
         <v>25550</v>
       </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M248" t="inlineStr">
         <is>
           <t>2020-02-28 20:27:16</t>
@@ -15636,11 +14776,6 @@
       <c r="K249" t="n">
         <v>1350</v>
       </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M249" t="inlineStr">
         <is>
           <t>2020-02-03 16:19:28</t>
@@ -15672,11 +14807,6 @@
           <t>N183TF</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>2020-02-03 16:58:39</t>
@@ -15764,11 +14894,6 @@
       <c r="K251" t="n">
         <v>5500</v>
       </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M251" t="inlineStr">
         <is>
           <t>2020-02-06 19:19:29</t>
@@ -15800,11 +14925,6 @@
           <t>N183TF</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>2020-02-06 19:46:38</t>
@@ -15864,11 +14984,6 @@
           <t>N183TF</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E253" t="inlineStr">
         <is>
           <t>2020-02-07 17:10:09</t>
@@ -16001,11 +15116,6 @@
           <t>N559PB</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E255" t="inlineStr">
         <is>
           <t>2020-02-01 13:50:44</t>
@@ -16576,11 +15686,6 @@
           <t>N559PB</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E263" t="inlineStr">
         <is>
           <t>2020-02-15 20:01:31</t>
@@ -16668,11 +15773,6 @@
       <c r="K264" t="n">
         <v>800</v>
       </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M264" t="inlineStr">
         <is>
           <t>2020-02-19 14:33:28</t>
@@ -16704,11 +15804,6 @@
           <t>N559PB</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E265" t="inlineStr">
         <is>
           <t>2020-02-19 17:09:01</t>
@@ -16869,11 +15964,6 @@
       <c r="K267" t="n">
         <v>3900</v>
       </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M267" t="inlineStr">
         <is>
           <t>2020-02-22 15:17:58</t>
@@ -16905,11 +15995,6 @@
           <t>N559PB</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E268" t="inlineStr">
         <is>
           <t>2020-02-22 17:39:47</t>
@@ -17042,11 +16127,6 @@
           <t>N22CT</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E270" t="inlineStr">
         <is>
           <t>2020-02-12 17:45:36</t>
@@ -17106,11 +16186,6 @@
           <t>N118AD</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E271" t="inlineStr">
         <is>
           <t>2020-02-17 16:52:23</t>
@@ -17125,11 +16200,6 @@
       <c r="K271" t="n">
         <v>13850</v>
       </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M271" t="inlineStr">
         <is>
           <t>2020-02-17 17:03:58</t>
@@ -17161,11 +16231,6 @@
           <t>N118AD</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E272" t="inlineStr">
         <is>
           <t>2020-02-17 18:11:33</t>
@@ -17180,11 +16245,6 @@
       <c r="K272" t="n">
         <v>28600</v>
       </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M272" t="inlineStr">
         <is>
           <t>2020-02-17 18:45:51</t>
@@ -17216,11 +16276,6 @@
           <t>N118AD</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E273" t="inlineStr">
         <is>
           <t>2020-02-17 20:24:01</t>
@@ -17308,11 +16363,6 @@
       <c r="K274" t="n">
         <v>4775</v>
       </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M274" t="inlineStr">
         <is>
           <t>2020-02-17 23:12:08</t>
@@ -17344,11 +16394,6 @@
           <t>N118AD</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E275" t="inlineStr">
         <is>
           <t>2020-02-18 20:34:44</t>
@@ -17363,11 +16408,6 @@
       <c r="K275" t="n">
         <v>20000</v>
       </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M275" t="inlineStr">
         <is>
           <t>2020-02-18 20:51:42</t>
@@ -17399,11 +16439,6 @@
           <t>N118AD</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E276" t="inlineStr">
         <is>
           <t>2020-02-19 20:07:36</t>
@@ -17463,11 +16498,6 @@
           <t>N118AD</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E277" t="inlineStr">
         <is>
           <t>2020-02-19 22:25:46</t>
@@ -17482,11 +16512,6 @@
       <c r="K277" t="n">
         <v>6350</v>
       </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M277" t="inlineStr">
         <is>
           <t>2020-02-19 23:37:55</t>
@@ -17623,11 +16648,6 @@
           <t>DCM2535</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>KTUL</t>
@@ -17696,11 +16716,6 @@
           <t>DCM2535</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>KMKC</t>
@@ -17729,11 +16744,6 @@
       <c r="K281" t="n">
         <v>2050</v>
       </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M281" t="inlineStr">
         <is>
           <t>2020-02-03 16:32:19</t>
@@ -17760,16 +16770,6 @@
           <t>DCM2535</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E282" t="inlineStr">
         <is>
           <t>2020-02-03 17:13:30</t>
@@ -17829,11 +16829,6 @@
           <t>N193SE</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E283" t="inlineStr">
         <is>
           <t>2020-02-17 20:05:27</t>
@@ -17893,11 +16888,6 @@
           <t>N193SE</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E284" t="inlineStr">
         <is>
           <t>2020-02-22 00:57:54</t>
@@ -18030,11 +17020,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E286" t="inlineStr">
         <is>
           <t>2020-02-03 19:53:22</t>
@@ -18049,11 +17034,6 @@
       <c r="K286" t="n">
         <v>14375</v>
       </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M286" t="inlineStr">
         <is>
           <t>2020-02-03 20:23:04</t>
@@ -18085,11 +17065,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E287" t="inlineStr">
         <is>
           <t>2020-02-03 20:58:30</t>
@@ -18149,11 +17124,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E288" t="inlineStr">
         <is>
           <t>2020-02-13 13:13:21</t>
@@ -18213,11 +17183,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E289" t="inlineStr">
         <is>
           <t>2020-02-13 19:09:03</t>
@@ -18350,11 +17315,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>2020-02-19 15:53:27</t>
@@ -18487,11 +17447,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E293" t="inlineStr">
         <is>
           <t>2020-02-23 17:16:20</t>
@@ -18551,11 +17506,6 @@
           <t>N604SA</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E294" t="inlineStr">
         <is>
           <t>2020-02-24 22:13:44</t>
@@ -18570,11 +17520,6 @@
       <c r="K294" t="n">
         <v>7624.999999999999</v>
       </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M294" t="inlineStr">
         <is>
           <t>2020-02-24 22:51:20</t>
@@ -19190,11 +18135,6 @@
           <t>N99VS</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E303" t="inlineStr">
         <is>
           <t>2020-02-17 21:11:08</t>
@@ -19254,11 +18194,6 @@
           <t>N39A</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E304" t="inlineStr">
         <is>
           <t>2020-02-07 18:16:41</t>
@@ -19318,11 +18253,6 @@
           <t>N39A</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E305" t="inlineStr">
         <is>
           <t>2020-02-21 17:50:15</t>
@@ -20185,11 +19115,6 @@
           <t>N238TD</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E317" t="inlineStr">
         <is>
           <t>2020-02-18 21:29:34</t>
@@ -20536,16 +19461,6 @@
           <t>DCM6737</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E322" t="inlineStr">
         <is>
           <t>2020-02-06 20:09:51</t>
@@ -20600,11 +19515,6 @@
           <t>DCM6737</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>KLZU</t>
@@ -20673,11 +19583,6 @@
           <t>DCM6737</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>KBDR</t>
@@ -20746,11 +19651,6 @@
           <t>DCM6737</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>KBED</t>
@@ -20819,16 +19719,6 @@
           <t>DCM6737</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E326" t="inlineStr">
         <is>
           <t>2020-02-21 21:00:35</t>
@@ -20888,11 +19778,6 @@
           <t>N719MC</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E327" t="inlineStr">
         <is>
           <t>2020-02-03 17:14:09</t>
@@ -20943,11 +19828,6 @@
           <t>N719MC</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E328" t="inlineStr">
         <is>
           <t>2020-02-10 14:14:34</t>
@@ -21007,11 +19887,6 @@
           <t>N719MC</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E329" t="inlineStr">
         <is>
           <t>2020-02-17 20:59:45</t>
@@ -21172,11 +20047,6 @@
       <c r="K331" t="n">
         <v>-50</v>
       </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M331" t="inlineStr">
         <is>
           <t>2020-02-29 17:05:13</t>
@@ -21208,11 +20078,6 @@
           <t>N719MC</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E332" t="inlineStr">
         <is>
           <t>2020-02-29 18:26:24</t>
@@ -21272,11 +20137,6 @@
           <t>N979DR</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E333" t="inlineStr">
         <is>
           <t>2020-02-06 19:30:05</t>
@@ -21409,11 +20269,6 @@
           <t>N979DR</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E335" t="inlineStr">
         <is>
           <t>2020-02-10 00:53:56</t>
@@ -21619,11 +20474,6 @@
           <t>N979DR</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E338" t="inlineStr">
         <is>
           <t>2020-02-17 18:37:17</t>
@@ -21683,11 +20533,6 @@
           <t>N285CA</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E339" t="inlineStr">
         <is>
           <t>2020-02-09 23:24:18</t>
@@ -21820,11 +20665,6 @@
           <t>N285CA</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E341" t="inlineStr">
         <is>
           <t>2020-02-28 18:59:17</t>
@@ -21957,11 +20797,6 @@
           <t>N753GJ</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E343" t="inlineStr">
         <is>
           <t>2020-02-06 13:40:14</t>
@@ -21976,11 +20811,6 @@
       <c r="K343" t="n">
         <v>13975</v>
       </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M343" t="inlineStr">
         <is>
           <t>2020-02-06 13:51:55</t>
@@ -22012,11 +20842,6 @@
           <t>N753GJ</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E344" t="inlineStr">
         <is>
           <t>2020-02-07 22:19:52</t>
@@ -22076,11 +20901,6 @@
           <t>N753GJ</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E345" t="inlineStr">
         <is>
           <t>2020-02-27 13:46:42</t>
@@ -22168,11 +20988,6 @@
       <c r="K346" t="n">
         <v>1600</v>
       </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M346" t="inlineStr">
         <is>
           <t>2020-02-28 02:14:09</t>
@@ -22204,11 +21019,6 @@
           <t>N719MP</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E347" t="inlineStr">
         <is>
           <t>2020-02-11 20:17:26</t>
@@ -22296,11 +21106,6 @@
       <c r="K348" t="n">
         <v>2925</v>
       </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M348" t="inlineStr">
         <is>
           <t>2020-02-13 14:48:58</t>
@@ -22332,11 +21137,6 @@
           <t>N719MP</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E349" t="inlineStr">
         <is>
           <t>2020-02-13 16:15:38</t>
@@ -22524,11 +21324,6 @@
           <t>N719MP</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E352" t="inlineStr">
         <is>
           <t>2020-02-27 15:42:54</t>
@@ -22583,11 +21378,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D353" t="inlineStr">
         <is>
           <t>KFTW</t>
@@ -22616,11 +21406,6 @@
       <c r="K353" t="n">
         <v>1975</v>
       </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M353" t="inlineStr">
         <is>
           <t>2020-02-17 17:19:20</t>
@@ -22647,11 +21432,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D354" t="inlineStr">
         <is>
           <t>16XS</t>
@@ -22720,11 +21500,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D355" t="inlineStr">
         <is>
           <t>KDAL</t>
@@ -22793,11 +21568,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D356" t="inlineStr">
         <is>
           <t>KMIA</t>
@@ -22866,16 +21636,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E357" t="inlineStr">
         <is>
           <t>2020-02-23 21:53:41</t>
@@ -22930,11 +21690,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D358" t="inlineStr">
         <is>
           <t>KDAL</t>
@@ -23003,16 +21758,6 @@
           <t>DCM6688</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E359" t="inlineStr">
         <is>
           <t>2020-02-27 15:19:12</t>
@@ -23072,11 +21817,6 @@
           <t>N75FP</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E360" t="inlineStr">
         <is>
           <t>2020-02-08 15:20:48</t>
@@ -23136,11 +21876,6 @@
           <t>N75FP</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E361" t="inlineStr">
         <is>
           <t>2020-02-10 14:31:50</t>
@@ -23228,11 +21963,6 @@
       <c r="K362" t="n">
         <v>1250</v>
       </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M362" t="inlineStr">
         <is>
           <t>2020-02-12 01:52:17</t>
@@ -23264,11 +21994,6 @@
           <t>N75FP</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E363" t="inlineStr">
         <is>
           <t>2020-02-12 14:28:11</t>
@@ -23328,11 +22053,6 @@
           <t>N75FP</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E364" t="inlineStr">
         <is>
           <t>2020-02-16 21:39:51</t>
@@ -23420,11 +22140,6 @@
       <c r="K365" t="n">
         <v>1675</v>
       </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M365" t="inlineStr">
         <is>
           <t>2020-02-17 15:26:29</t>
@@ -23456,11 +22171,6 @@
           <t>N75FP</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E366" t="inlineStr">
         <is>
           <t>2020-02-19 14:41:26</t>
@@ -23548,11 +22258,6 @@
       <c r="K367" t="n">
         <v>600</v>
       </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M367" t="inlineStr">
         <is>
           <t>2020-02-19 16:23:40</t>
@@ -23584,11 +22289,6 @@
           <t>N75FP</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E368" t="inlineStr">
         <is>
           <t>2020-02-19 17:16:39</t>
@@ -23749,11 +22449,6 @@
       <c r="K370" t="n">
         <v>2375</v>
       </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M370" t="inlineStr">
         <is>
           <t>2020-02-10 19:24:46</t>
@@ -23785,11 +22480,6 @@
           <t>N990DW</t>
         </is>
       </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E371" t="inlineStr">
         <is>
           <t>2020-02-10 21:32:47</t>
@@ -23922,11 +22612,6 @@
           <t>N72XF</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E373" t="inlineStr">
         <is>
           <t>2020-02-02 18:11:27</t>
@@ -24205,11 +22890,6 @@
           <t>N72XF</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E377" t="inlineStr">
         <is>
           <t>2020-02-17 19:24:06</t>
@@ -24297,11 +22977,6 @@
       <c r="K378" t="n">
         <v>400</v>
       </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M378" t="inlineStr">
         <is>
           <t>2020-02-19 20:26:53</t>
@@ -24333,11 +23008,6 @@
           <t>N72XF</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E379" t="inlineStr">
         <is>
           <t>2020-02-23 21:19:15</t>
@@ -24470,11 +23140,6 @@
           <t>N368BL</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E381" t="inlineStr">
         <is>
           <t>2020-02-06 13:09:56</t>
@@ -24607,11 +23272,6 @@
           <t>N368BL</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E383" t="inlineStr">
         <is>
           <t>2020-02-08 15:43:40</t>
@@ -24744,11 +23404,6 @@
           <t>N368BL</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E385" t="inlineStr">
         <is>
           <t>2020-02-25 17:50:55</t>
@@ -24803,16 +23458,6 @@
           <t>DCM405S</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E386" t="inlineStr">
         <is>
           <t>2020-02-16 22:36:29</t>
@@ -24867,11 +23512,6 @@
           <t>DCM405S</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D387" t="inlineStr">
         <is>
           <t>KFWA</t>
@@ -24940,11 +23580,6 @@
           <t>DCM405S</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D388" t="inlineStr">
         <is>
           <t>KCPS</t>
@@ -25013,11 +23648,6 @@
           <t>DCM405S</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D389" t="inlineStr">
         <is>
           <t>60IN</t>
@@ -25086,11 +23716,6 @@
           <t>DCM405S</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D390" t="inlineStr">
         <is>
           <t>52IN</t>
@@ -25159,11 +23784,6 @@
           <t>DCM405S</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D391" t="inlineStr">
         <is>
           <t>KCPS</t>
@@ -25338,11 +23958,6 @@
       <c r="K393" t="n">
         <v>3300</v>
       </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M393" t="inlineStr">
         <is>
           <t>2020-02-10 17:58:56</t>
@@ -25374,11 +23989,6 @@
           <t>N32SM</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E394" t="inlineStr">
         <is>
           <t>2020-02-10 21:05:55</t>
@@ -25393,11 +24003,6 @@
       <c r="K394" t="n">
         <v>18500</v>
       </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M394" t="inlineStr">
         <is>
           <t>2020-02-10 21:44:50</t>
@@ -25429,11 +24034,6 @@
           <t>N32SM</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E395" t="inlineStr">
         <is>
           <t>2020-02-11 13:33:57</t>
@@ -26251,11 +24851,6 @@
       <c r="K406" t="n">
         <v>1000</v>
       </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M406" t="inlineStr">
         <is>
           <t>2020-02-18 04:53:07</t>
@@ -26506,11 +25101,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E410" t="inlineStr">
         <is>
           <t>2020-02-04 13:28:10</t>
@@ -26570,11 +25160,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E411" t="inlineStr">
         <is>
           <t>2020-02-07 18:09:17</t>
@@ -26589,11 +25174,6 @@
       <c r="K411" t="n">
         <v>21875</v>
       </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M411" t="inlineStr">
         <is>
           <t>2020-02-07 18:49:40</t>
@@ -26625,11 +25205,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E412" t="inlineStr">
         <is>
           <t>2020-02-20 12:17:51</t>
@@ -26717,11 +25292,6 @@
       <c r="K413" t="n">
         <v>2050</v>
       </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M413" t="inlineStr">
         <is>
           <t>2020-02-20 16:38:54</t>
@@ -26826,11 +25396,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E415" t="inlineStr">
         <is>
           <t>2020-02-21 19:34:31</t>
@@ -26890,11 +25455,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E416" t="inlineStr">
         <is>
           <t>2020-02-25 14:08:35</t>
@@ -27027,11 +25587,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E418" t="inlineStr">
         <is>
           <t>2020-02-26 12:14:53</t>
@@ -27310,11 +25865,6 @@
           <t>N123FF</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E422" t="inlineStr">
         <is>
           <t>2020-02-29 13:17:06</t>
@@ -27329,11 +25879,6 @@
       <c r="K422" t="n">
         <v>14775</v>
       </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M422" t="inlineStr">
         <is>
           <t>2020-02-29 16:24:16</t>
@@ -27466,11 +26011,6 @@
       <c r="K424" t="n">
         <v>899.9999999999999</v>
       </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M424" t="inlineStr">
         <is>
           <t>2020-02-09 15:03:58</t>
@@ -27502,11 +26042,6 @@
           <t>N560GS</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E425" t="inlineStr">
         <is>
           <t>2020-02-15 23:45:33</t>
@@ -27740,11 +26275,6 @@
       <c r="K428" t="n">
         <v>1400</v>
       </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M428" t="inlineStr">
         <is>
           <t>2020-02-25 16:51:25</t>
@@ -27776,11 +26306,6 @@
           <t>N560GS</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E429" t="inlineStr">
         <is>
           <t>2020-02-25 21:12:58</t>
@@ -28351,11 +26876,6 @@
           <t>N540W</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E437" t="inlineStr">
         <is>
           <t>2020-02-13 16:28:58</t>
@@ -28707,11 +27227,6 @@
           <t>N540W</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E442" t="inlineStr">
         <is>
           <t>2020-02-27 23:37:25</t>
@@ -28799,11 +27314,6 @@
       <c r="K443" t="n">
         <v>1075</v>
       </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M443" t="inlineStr">
         <is>
           <t>2020-02-06 17:04:53</t>
@@ -28835,11 +27345,6 @@
           <t>N629DA</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E444" t="inlineStr">
         <is>
           <t>2020-02-06 20:10:33</t>
@@ -29292,11 +27797,6 @@
       <c r="K450" t="n">
         <v>0</v>
       </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M450" t="inlineStr">
         <is>
           <t>2020-02-20 12:45:37</t>
@@ -29328,11 +27828,6 @@
           <t>N629DA</t>
         </is>
       </c>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E451" t="inlineStr">
         <is>
           <t>2020-02-20 16:45:00</t>
@@ -29785,11 +28280,6 @@
       <c r="K457" t="n">
         <v>225</v>
       </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M457" t="inlineStr">
         <is>
           <t>2020-02-24 15:50:50</t>
@@ -29821,11 +28311,6 @@
           <t>N629DA</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E458" t="inlineStr">
         <is>
           <t>2020-02-24 17:30:28</t>
@@ -30031,11 +28516,6 @@
           <t>N629DA</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E461" t="inlineStr">
         <is>
           <t>2020-02-27 12:51:46</t>
@@ -30123,11 +28603,6 @@
       <c r="K462" t="n">
         <v>1475</v>
       </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M462" t="inlineStr">
         <is>
           <t>2020-02-12 15:36:18</t>
@@ -30159,11 +28634,6 @@
           <t>N906BL</t>
         </is>
       </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E463" t="inlineStr">
         <is>
           <t>2020-02-12 23:17:32</t>
@@ -30251,11 +28721,6 @@
       <c r="K464" t="n">
         <v>2125</v>
       </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M464" t="inlineStr">
         <is>
           <t>2020-02-26 16:55:51</t>
@@ -30287,11 +28752,6 @@
           <t>N906BL</t>
         </is>
       </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E465" t="inlineStr">
         <is>
           <t>2020-02-26 21:08:18</t>
@@ -30452,11 +28912,6 @@
       <c r="K467" t="n">
         <v>1875</v>
       </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M467" t="inlineStr">
         <is>
           <t>2020-02-29 16:49:56</t>
@@ -30488,11 +28943,6 @@
           <t>N906BL</t>
         </is>
       </c>
-      <c r="D468" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E468" t="inlineStr">
         <is>
           <t>2020-02-29 22:16:02</t>
@@ -30552,11 +29002,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E469" t="inlineStr">
         <is>
           <t>2020-02-03 14:21:51</t>
@@ -30644,11 +29089,6 @@
       <c r="K470" t="n">
         <v>849.9999999999999</v>
       </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M470" t="inlineStr">
         <is>
           <t>2020-02-03 17:29:23</t>
@@ -30680,11 +29120,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D471" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E471" t="inlineStr">
         <is>
           <t>2020-02-18 14:13:35</t>
@@ -30744,11 +29179,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E472" t="inlineStr">
         <is>
           <t>2020-02-20 14:10:24</t>
@@ -30763,11 +29193,6 @@
       <c r="K472" t="n">
         <v>19175</v>
       </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M472" t="inlineStr">
         <is>
           <t>2020-02-20 15:08:18</t>
@@ -30799,11 +29224,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E473" t="inlineStr">
         <is>
           <t>2020-02-20 23:05:53</t>
@@ -30818,11 +29238,6 @@
       <c r="K473" t="n">
         <v>21625</v>
       </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M473" t="inlineStr">
         <is>
           <t>2020-02-20 23:33:25</t>
@@ -30854,11 +29269,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D474" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E474" t="inlineStr">
         <is>
           <t>2020-02-21 14:31:18</t>
@@ -30873,11 +29283,6 @@
       <c r="K474" t="n">
         <v>18725</v>
       </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M474" t="inlineStr">
         <is>
           <t>2020-02-21 14:59:33</t>
@@ -30909,11 +29314,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E475" t="inlineStr">
         <is>
           <t>2020-02-21 19:58:35</t>
@@ -30973,11 +29373,6 @@
           <t>N914BD</t>
         </is>
       </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E476" t="inlineStr">
         <is>
           <t>2020-02-28 14:07:49</t>
@@ -31037,11 +29432,6 @@
           <t>N160AD</t>
         </is>
       </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E477" t="inlineStr">
         <is>
           <t>2020-02-07 14:20:11</t>
@@ -31174,11 +29564,6 @@
           <t>N160AD</t>
         </is>
       </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E479" t="inlineStr">
         <is>
           <t>2020-02-07 18:38:05</t>
@@ -31384,11 +29769,6 @@
           <t>N160AD</t>
         </is>
       </c>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E482" t="inlineStr">
         <is>
           <t>2020-02-10 13:44:48</t>
@@ -31549,11 +29929,6 @@
       <c r="K484" t="n">
         <v>6674.999999999999</v>
       </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M484" t="inlineStr">
         <is>
           <t>2020-02-27 13:58:55</t>
@@ -31585,11 +29960,6 @@
           <t>N160AD</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E485" t="inlineStr">
         <is>
           <t>2020-02-27 22:45:00</t>
@@ -31722,11 +30092,6 @@
           <t>N96GA</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E487" t="inlineStr">
         <is>
           <t>2020-02-12 05:10:48</t>
@@ -31932,11 +30297,6 @@
           <t>N96GA</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E490" t="inlineStr">
         <is>
           <t>2020-02-17 22:45:50</t>
@@ -32137,11 +30497,6 @@
           <t>DCM2633</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D493" t="inlineStr">
         <is>
           <t>KADS</t>
@@ -32361,11 +30716,6 @@
           <t>N927AA</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E496" t="inlineStr">
         <is>
           <t>2020-02-03 20:20:23</t>
@@ -32498,11 +30848,6 @@
           <t>N927AA</t>
         </is>
       </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E498" t="inlineStr">
         <is>
           <t>2020-02-20 20:56:46</t>
@@ -33073,11 +31418,6 @@
           <t>N927AA</t>
         </is>
       </c>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E506" t="inlineStr">
         <is>
           <t>2020-02-27 21:43:02</t>
@@ -33311,11 +31651,6 @@
       <c r="K509" t="n">
         <v>1525</v>
       </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M509" t="inlineStr">
         <is>
           <t>2020-02-05 15:39:26</t>
@@ -33375,11 +31710,6 @@
       <c r="K510" t="n">
         <v>5500</v>
       </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M510" t="inlineStr">
         <is>
           <t>2020-02-05 20:20:40</t>
@@ -33411,11 +31741,6 @@
           <t>N222MS</t>
         </is>
       </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E511" t="inlineStr">
         <is>
           <t>2020-02-07 15:56:38</t>
@@ -33430,11 +31755,6 @@
       <c r="K511" t="n">
         <v>15550</v>
       </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M511" t="inlineStr">
         <is>
           <t>2020-02-07 17:01:38</t>
@@ -33466,11 +31786,6 @@
           <t>N222MS</t>
         </is>
       </c>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E512" t="inlineStr">
         <is>
           <t>2020-02-07 18:01:15</t>
@@ -33631,11 +31946,6 @@
       <c r="K514" t="n">
         <v>625</v>
       </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M514" t="inlineStr">
         <is>
           <t>2020-02-10 15:56:56</t>
@@ -33813,11 +32123,6 @@
           <t>N222MS</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E517" t="inlineStr">
         <is>
           <t>2020-02-13 22:49:03</t>
@@ -33905,11 +32210,6 @@
       <c r="K518" t="n">
         <v>2475</v>
       </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M518" t="inlineStr">
         <is>
           <t>2020-02-11 14:32:11</t>
@@ -33941,11 +32241,6 @@
           <t>C-FNFS</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E519" t="inlineStr">
         <is>
           <t>2020-02-12 13:39:38</t>
@@ -34005,11 +32300,6 @@
           <t>C-FNFS</t>
         </is>
       </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E520" t="inlineStr">
         <is>
           <t>2020-02-24 12:41:40</t>
@@ -34133,11 +32423,6 @@
           <t>C-FNFS</t>
         </is>
       </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E522" t="inlineStr">
         <is>
           <t>2020-02-26 14:17:56</t>
@@ -34480,11 +32765,6 @@
           <t>N1989D</t>
         </is>
       </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E527" t="inlineStr">
         <is>
           <t>2020-02-29 14:57:58</t>
@@ -34499,11 +32779,6 @@
       <c r="K527" t="n">
         <v>12450</v>
       </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M527" t="inlineStr">
         <is>
           <t>2020-02-29 17:43:51</t>
@@ -34535,11 +32810,6 @@
           <t>N970JD</t>
         </is>
       </c>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E528" t="inlineStr">
         <is>
           <t>2020-02-09 14:58:26</t>
@@ -34599,11 +32869,6 @@
           <t>N970JD</t>
         </is>
       </c>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E529" t="inlineStr">
         <is>
           <t>2020-02-13 15:22:48</t>
@@ -34663,11 +32928,6 @@
           <t>N970JD</t>
         </is>
       </c>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E530" t="inlineStr">
         <is>
           <t>2020-02-16 12:52:57</t>
@@ -34727,11 +32987,6 @@
           <t>N970JD</t>
         </is>
       </c>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E531" t="inlineStr">
         <is>
           <t>2020-02-20 21:46:07</t>
@@ -35370,11 +33625,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D540" t="inlineStr">
         <is>
           <t>TS85</t>
@@ -35443,11 +33693,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D541" t="inlineStr">
         <is>
           <t>KPWA</t>
@@ -35516,11 +33761,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D542" t="inlineStr">
         <is>
           <t>KRVS</t>
@@ -35589,11 +33829,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D543" t="inlineStr">
         <is>
           <t>K3O3</t>
@@ -35662,11 +33897,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D544" t="inlineStr">
         <is>
           <t>K3O3</t>
@@ -35735,11 +33965,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D545" t="inlineStr">
         <is>
           <t>K1F4</t>
@@ -35808,11 +34033,6 @@
           <t>DCM2028</t>
         </is>
       </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D546" t="inlineStr">
         <is>
           <t>KTKI</t>
@@ -35959,11 +34179,6 @@
           <t>N106FF</t>
         </is>
       </c>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E548" t="inlineStr">
         <is>
           <t>2020-02-11 17:43:30</t>
@@ -36051,11 +34266,6 @@
       <c r="K549" t="n">
         <v>1000</v>
       </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M549" t="inlineStr">
         <is>
           <t>2020-02-13 17:53:27</t>
@@ -36087,11 +34297,6 @@
           <t>N106FF</t>
         </is>
       </c>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E550" t="inlineStr">
         <is>
           <t>2020-02-13 21:17:39</t>
@@ -36297,11 +34502,6 @@
           <t>N348AJ</t>
         </is>
       </c>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E553" t="inlineStr">
         <is>
           <t>2020-02-04 17:48:24</t>
@@ -36507,11 +34707,6 @@
           <t>N348AJ</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E556" t="inlineStr">
         <is>
           <t>2020-02-10 11:27:57</t>
@@ -36526,11 +34721,6 @@
       <c r="K556" t="n">
         <v>22100</v>
       </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M556" t="inlineStr">
         <is>
           <t>2020-02-10 11:53:25</t>
@@ -36562,11 +34752,6 @@
           <t>N348AJ</t>
         </is>
       </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E557" t="inlineStr">
         <is>
           <t>2020-02-10 14:02:01</t>
@@ -36918,11 +35103,6 @@
           <t>N348AJ</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E562" t="inlineStr">
         <is>
           <t>2020-02-17 15:50:39</t>
@@ -37339,11 +35519,6 @@
       <c r="K568" t="n">
         <v>5749.999999999999</v>
       </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M568" t="inlineStr">
         <is>
           <t>2020-02-22 16:44:15</t>
@@ -37375,11 +35550,6 @@
           <t>N348AJ</t>
         </is>
       </c>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E569" t="inlineStr">
         <is>
           <t>2020-02-23 21:28:08</t>
@@ -37731,11 +35901,6 @@
           <t>N348AJ</t>
         </is>
       </c>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E574" t="inlineStr">
         <is>
           <t>2020-02-29 21:28:13</t>
@@ -37814,11 +35979,6 @@
       <c r="K575" t="n">
         <v>50</v>
       </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M575" t="inlineStr">
         <is>
           <t>2020-02-11 15:18:02</t>
@@ -37850,11 +36010,6 @@
           <t>N568B</t>
         </is>
       </c>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E576" t="inlineStr">
         <is>
           <t>2020-02-11 15:44:39</t>
@@ -37924,11 +36079,6 @@
       <c r="K577" t="n">
         <v/>
       </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M577" t="inlineStr">
         <is>
           <t>2020-02-11 23:08:43</t>
@@ -37960,11 +36110,6 @@
           <t>N568B</t>
         </is>
       </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E578" t="inlineStr">
         <is>
           <t>2020-02-12 23:24:54</t>
@@ -38034,11 +36179,6 @@
       <c r="K579" t="n">
         <v>-250</v>
       </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M579" t="inlineStr">
         <is>
           <t>2020-02-18 12:37:49</t>
@@ -38070,11 +36210,6 @@
           <t>N568B</t>
         </is>
       </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E580" t="inlineStr">
         <is>
           <t>2020-02-19 22:52:52</t>
@@ -38254,11 +36389,6 @@
       <c r="K583" t="n">
         <v>1000</v>
       </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M583" t="inlineStr">
         <is>
           <t>2020-02-24 12:56:58</t>
@@ -38290,11 +36420,6 @@
           <t>N568B</t>
         </is>
       </c>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E584" t="inlineStr">
         <is>
           <t>2020-02-25 20:37:32</t>
@@ -38364,11 +36489,6 @@
       <c r="K585" t="n">
         <v>125</v>
       </c>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M585" t="inlineStr">
         <is>
           <t>2020-02-26 15:33:43</t>
@@ -38400,11 +36520,6 @@
           <t>N568B</t>
         </is>
       </c>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E586" t="inlineStr">
         <is>
           <t>2020-02-26 23:00:12</t>
@@ -38455,11 +36570,6 @@
           <t>N552CN</t>
         </is>
       </c>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E587" t="inlineStr">
         <is>
           <t>2020-02-18 18:14:24</t>
@@ -38811,11 +36921,6 @@
           <t>N729MJ</t>
         </is>
       </c>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E592" t="inlineStr">
         <is>
           <t>2020-02-04 19:19:09</t>
@@ -38875,11 +36980,6 @@
           <t>N729MJ</t>
         </is>
       </c>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E593" t="inlineStr">
         <is>
           <t>2020-02-27 00:09:57</t>
@@ -39231,11 +37331,6 @@
           <t>N717CH</t>
         </is>
       </c>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E598" t="inlineStr">
         <is>
           <t>2020-02-11 14:05:16</t>
@@ -39441,11 +37536,6 @@
           <t>N717CH</t>
         </is>
       </c>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E601" t="inlineStr">
         <is>
           <t>2020-02-21 16:46:11</t>
@@ -39578,11 +37668,6 @@
           <t>N717CH</t>
         </is>
       </c>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E603" t="inlineStr">
         <is>
           <t>2020-02-23 20:46:38</t>
@@ -39962,11 +38047,6 @@
       <c r="K608" t="n">
         <v>1500</v>
       </c>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M608" t="inlineStr">
         <is>
           <t>2020-02-26 21:26:46</t>
@@ -39998,11 +38078,6 @@
           <t>N717CH</t>
         </is>
       </c>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E609" t="inlineStr">
         <is>
           <t>2020-02-27 00:09:11</t>
@@ -40276,11 +38351,6 @@
           <t>DCM2439</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D613" t="inlineStr">
         <is>
           <t>KOXR</t>
@@ -40349,11 +38419,6 @@
           <t>DCM2439</t>
         </is>
       </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D614" t="inlineStr">
         <is>
           <t>KSBA</t>
@@ -40422,11 +38487,6 @@
           <t>DCM2439</t>
         </is>
       </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D615" t="inlineStr">
         <is>
           <t>KSBA</t>
@@ -40495,11 +38555,6 @@
           <t>DCM2439</t>
         </is>
       </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D616" t="inlineStr">
         <is>
           <t>KCMA</t>
@@ -40568,11 +38623,6 @@
           <t>DCM2439</t>
         </is>
       </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D617" t="inlineStr">
         <is>
           <t>KAVX</t>
@@ -40646,11 +38696,6 @@
           <t>N111BF</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E618" t="inlineStr">
         <is>
           <t>2020-02-08 14:54:53</t>
@@ -40929,11 +38974,6 @@
           <t>N111BF</t>
         </is>
       </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E622" t="inlineStr">
         <is>
           <t>2020-02-19 14:18:53</t>
@@ -41066,11 +39106,6 @@
           <t>N111BF</t>
         </is>
       </c>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E624" t="inlineStr">
         <is>
           <t>2020-02-20 14:48:52</t>
@@ -41276,11 +39311,6 @@
           <t>N111BF</t>
         </is>
       </c>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E627" t="inlineStr">
         <is>
           <t>2020-02-29 18:50:59</t>
@@ -41413,11 +39443,6 @@
           <t>N380JP</t>
         </is>
       </c>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E629" t="inlineStr">
         <is>
           <t>2020-02-19 13:58:13</t>
@@ -41432,11 +39457,6 @@
       <c r="K629" t="n">
         <v>8350</v>
       </c>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M629" t="inlineStr">
         <is>
           <t>2020-02-19 14:43:23</t>
@@ -41468,11 +39488,6 @@
           <t>N380JP</t>
         </is>
       </c>
-      <c r="D630" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E630" t="inlineStr">
         <is>
           <t>2020-02-20 00:23:01</t>
@@ -42335,11 +40350,6 @@
           <t>N27CJ</t>
         </is>
       </c>
-      <c r="D642" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E642" t="inlineStr">
         <is>
           <t>2020-02-12 20:40:30</t>
@@ -42399,11 +40409,6 @@
           <t>N27CJ</t>
         </is>
       </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E643" t="inlineStr">
         <is>
           <t>2020-02-13 14:45:42</t>
@@ -42682,11 +40687,6 @@
           <t>N27CJ</t>
         </is>
       </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E647" t="inlineStr">
         <is>
           <t>2020-02-18 14:22:00</t>
@@ -42965,11 +40965,6 @@
           <t>N27CJ</t>
         </is>
       </c>
-      <c r="D651" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E651" t="inlineStr">
         <is>
           <t>2020-02-24 17:24:16</t>
@@ -43243,16 +41238,6 @@
           <t>DCM4010</t>
         </is>
       </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D655" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E655" t="inlineStr">
         <is>
           <t>2020-02-01 00:34:21</t>
@@ -43307,16 +41292,6 @@
           <t>DCM4010</t>
         </is>
       </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E656" t="inlineStr">
         <is>
           <t>2020-02-02 17:43:27</t>
@@ -43371,16 +41346,6 @@
           <t>DCM4010</t>
         </is>
       </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E657" t="inlineStr">
         <is>
           <t>2020-02-22 18:41:19</t>
@@ -43435,16 +41400,6 @@
           <t>DCM4010</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E658" t="inlineStr">
         <is>
           <t>2020-02-25 04:35:18</t>
@@ -43504,11 +41459,6 @@
           <t>N525NH</t>
         </is>
       </c>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E659" t="inlineStr">
         <is>
           <t>2020-02-07 20:30:24</t>
@@ -43523,11 +41473,6 @@
       <c r="K659" t="n">
         <v>14700</v>
       </c>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M659" t="inlineStr">
         <is>
           <t>2020-02-07 22:32:18</t>
@@ -43559,11 +41504,6 @@
           <t>N525NH</t>
         </is>
       </c>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E660" t="inlineStr">
         <is>
           <t>2020-02-08 16:40:38</t>
@@ -43614,11 +41554,6 @@
           <t>N525NH</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E661" t="inlineStr">
         <is>
           <t>2020-02-22 21:31:17</t>
@@ -43633,11 +41568,6 @@
       <c r="K661" t="n">
         <v>19900</v>
       </c>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M661" t="inlineStr">
         <is>
           <t>2020-02-22 22:07:02</t>
@@ -43669,11 +41599,6 @@
           <t>N525NH</t>
         </is>
       </c>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E662" t="inlineStr">
         <is>
           <t>2020-02-23 00:14:23</t>
@@ -43688,11 +41613,6 @@
       <c r="K662" t="n">
         <v>15525</v>
       </c>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M662" t="inlineStr">
         <is>
           <t>2020-02-23 00:41:41</t>
@@ -43724,11 +41644,6 @@
           <t>N178WG</t>
         </is>
       </c>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E663" t="inlineStr">
         <is>
           <t>2020-02-04 16:48:39</t>
@@ -43788,11 +41703,6 @@
           <t>N178WG</t>
         </is>
       </c>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E664" t="inlineStr">
         <is>
           <t>2020-02-06 16:10:39</t>
@@ -44071,11 +41981,6 @@
           <t>N178WG</t>
         </is>
       </c>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E668" t="inlineStr">
         <is>
           <t>2020-02-21 19:59:25</t>
@@ -44135,11 +42040,6 @@
           <t>N178WG</t>
         </is>
       </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E669" t="inlineStr">
         <is>
           <t>2020-02-21 21:50:51</t>
@@ -44154,11 +42054,6 @@
       <c r="K669" t="n">
         <v>12600</v>
       </c>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M669" t="inlineStr">
         <is>
           <t>2020-02-21 22:55:36</t>
@@ -44190,11 +42085,6 @@
           <t>N178WG</t>
         </is>
       </c>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E670" t="inlineStr">
         <is>
           <t>2020-02-22 17:01:06</t>
@@ -44254,11 +42144,6 @@
           <t>N178WG</t>
         </is>
       </c>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E671" t="inlineStr">
         <is>
           <t>2020-02-27 15:07:39</t>
@@ -45076,11 +42961,6 @@
       <c r="K682" t="n">
         <v>1325</v>
       </c>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M682" t="inlineStr">
         <is>
           <t>2020-02-26 22:14:06</t>
@@ -45112,11 +42992,6 @@
           <t>N213XF</t>
         </is>
       </c>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E683" t="inlineStr">
         <is>
           <t>2020-02-27 15:22:33</t>
@@ -45171,11 +43046,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D684" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -45244,11 +43114,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D685" t="inlineStr">
         <is>
           <t>KADS</t>
@@ -45317,11 +43182,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D686" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -45390,11 +43250,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D687" t="inlineStr">
         <is>
           <t>KSDF</t>
@@ -45463,11 +43318,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D688" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -45536,11 +43386,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D689" t="inlineStr">
         <is>
           <t>KTEB</t>
@@ -45609,11 +43454,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D690" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -45642,11 +43482,6 @@
       <c r="K690" t="n">
         <v>625</v>
       </c>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M690" t="inlineStr">
         <is>
           <t>2020-02-19 13:45:24</t>
@@ -45673,16 +43508,6 @@
           <t>DCM4140</t>
         </is>
       </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E691" t="inlineStr">
         <is>
           <t>2020-02-19 20:22:35</t>
@@ -46107,11 +43932,6 @@
           <t>N44ZF</t>
         </is>
       </c>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E697" t="inlineStr">
         <is>
           <t>2020-02-10 16:17:04</t>
@@ -46637,11 +44457,6 @@
       <c r="K704" t="n">
         <v>1275</v>
       </c>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M704" t="inlineStr">
         <is>
           <t>2020-02-21 02:21:27</t>
@@ -46673,11 +44488,6 @@
           <t>N409ST</t>
         </is>
       </c>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E705" t="inlineStr">
         <is>
           <t>2020-02-06 02:00:46</t>
@@ -46810,11 +44620,6 @@
           <t>N409ST</t>
         </is>
       </c>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E707" t="inlineStr">
         <is>
           <t>2020-02-29 11:14:45</t>
@@ -46874,11 +44679,6 @@
           <t>N351SP</t>
         </is>
       </c>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E708" t="inlineStr">
         <is>
           <t>2020-02-03 15:07:58</t>
@@ -46938,11 +44738,6 @@
           <t>N351SP</t>
         </is>
       </c>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E709" t="inlineStr">
         <is>
           <t>2020-02-05 23:17:34</t>
@@ -47002,11 +44797,6 @@
           <t>N351SP</t>
         </is>
       </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E710" t="inlineStr">
         <is>
           <t>2020-02-10 20:20:22</t>
@@ -47240,11 +45030,6 @@
       <c r="K713" t="n">
         <v>25950</v>
       </c>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M713" t="inlineStr">
         <is>
           <t>2020-02-12 18:44:52</t>
@@ -47276,11 +45061,6 @@
           <t>N351SP</t>
         </is>
       </c>
-      <c r="D714" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E714" t="inlineStr">
         <is>
           <t>2020-02-18 22:32:37</t>
@@ -47340,11 +45120,6 @@
           <t>N351SP</t>
         </is>
       </c>
-      <c r="D715" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E715" t="inlineStr">
         <is>
           <t>2020-02-25 13:13:43</t>
@@ -47432,11 +45207,6 @@
       <c r="K716" t="n">
         <v/>
       </c>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M716" t="inlineStr">
         <is>
           <t>2020-02-25 21:58:46</t>
@@ -47468,11 +45238,6 @@
           <t>N351SP</t>
         </is>
       </c>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E717" t="inlineStr">
         <is>
           <t>2020-02-26 14:11:08</t>
@@ -47532,11 +45297,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D718" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E718" t="inlineStr">
         <is>
           <t>2020-02-01 17:45:12</t>
@@ -47596,11 +45356,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D719" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E719" t="inlineStr">
         <is>
           <t>2020-02-03 14:09:41</t>
@@ -47879,11 +45634,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E723" t="inlineStr">
         <is>
           <t>2020-02-06 14:06:37</t>
@@ -47943,11 +45693,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D724" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E724" t="inlineStr">
         <is>
           <t>2020-02-10 14:24:21</t>
@@ -48007,11 +45752,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D725" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E725" t="inlineStr">
         <is>
           <t>2020-02-10 22:47:18</t>
@@ -48026,11 +45766,6 @@
       <c r="K725" t="n">
         <v>8899.999999999998</v>
       </c>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M725" t="inlineStr">
         <is>
           <t>2020-02-10 23:16:16</t>
@@ -48062,11 +45797,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D726" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E726" t="inlineStr">
         <is>
           <t>2020-02-11 14:09:10</t>
@@ -48154,11 +45884,6 @@
       <c r="K727" t="n">
         <v>1975</v>
       </c>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M727" t="inlineStr">
         <is>
           <t>2020-02-11 23:14:59</t>
@@ -48190,11 +45915,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E728" t="inlineStr">
         <is>
           <t>2020-02-12 14:22:09</t>
@@ -48209,11 +45929,6 @@
       <c r="K728" t="n">
         <v>19150</v>
       </c>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M728" t="inlineStr">
         <is>
           <t>2020-02-12 15:01:05</t>
@@ -48245,11 +45960,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E729" t="inlineStr">
         <is>
           <t>2020-02-12 22:32:52</t>
@@ -48264,11 +45974,6 @@
       <c r="K729" t="n">
         <v>18975</v>
       </c>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M729" t="inlineStr">
         <is>
           <t>2020-02-12 23:01:11</t>
@@ -48300,11 +46005,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E730" t="inlineStr">
         <is>
           <t>2020-02-16 23:20:19</t>
@@ -48392,11 +46092,6 @@
       <c r="K731" t="n">
         <v>1150</v>
       </c>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M731" t="inlineStr">
         <is>
           <t>2020-02-17 15:02:34</t>
@@ -48428,11 +46123,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D732" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E732" t="inlineStr">
         <is>
           <t>2020-02-17 23:44:28</t>
@@ -48739,11 +46429,6 @@
       <c r="K736" t="n">
         <v>1475</v>
       </c>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M736" t="inlineStr">
         <is>
           <t>2020-02-19 15:34:04</t>
@@ -49022,11 +46707,6 @@
       <c r="K740" t="n">
         <v>1325</v>
       </c>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M740" t="inlineStr">
         <is>
           <t>2020-02-20 15:09:57</t>
@@ -49058,11 +46738,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D741" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E741" t="inlineStr">
         <is>
           <t>2020-02-20 17:46:25</t>
@@ -49077,11 +46752,6 @@
       <c r="K741" t="n">
         <v>22875</v>
       </c>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M741" t="inlineStr">
         <is>
           <t>2020-02-20 18:09:25</t>
@@ -49360,11 +47030,6 @@
       <c r="K745" t="n">
         <v>-125</v>
       </c>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M745" t="inlineStr">
         <is>
           <t>2020-02-21 19:00:36</t>
@@ -49396,11 +47061,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E746" t="inlineStr">
         <is>
           <t>2020-02-21 22:31:42</t>
@@ -49415,11 +47075,6 @@
       <c r="K746" t="n">
         <v>18625</v>
       </c>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M746" t="inlineStr">
         <is>
           <t>2020-02-21 23:01:24</t>
@@ -49451,11 +47106,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D747" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E747" t="inlineStr">
         <is>
           <t>2020-02-22 01:20:26</t>
@@ -49734,11 +47384,6 @@
           <t>N917BD</t>
         </is>
       </c>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E751" t="inlineStr">
         <is>
           <t>2020-02-27 20:45:47</t>
@@ -49871,11 +47516,6 @@
           <t>N916CS</t>
         </is>
       </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E753" t="inlineStr">
         <is>
           <t>2020-02-05 16:31:40</t>
@@ -50008,11 +47648,6 @@
           <t>N916CS</t>
         </is>
       </c>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E755" t="inlineStr">
         <is>
           <t>2020-02-06 16:37:10</t>
@@ -50027,11 +47662,6 @@
       <c r="K755" t="n">
         <v>9624.999999999998</v>
       </c>
-      <c r="L755" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M755" t="inlineStr">
         <is>
           <t>2020-02-06 17:13:59</t>
@@ -50063,11 +47693,6 @@
           <t>N916CS</t>
         </is>
       </c>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E756" t="inlineStr">
         <is>
           <t>2020-02-06 20:28:00</t>
@@ -50082,11 +47707,6 @@
       <c r="K756" t="n">
         <v>14325</v>
       </c>
-      <c r="L756" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M756" t="inlineStr">
         <is>
           <t>2020-02-06 20:46:25</t>
@@ -50438,11 +48058,6 @@
       <c r="K761" t="n">
         <v>3025</v>
       </c>
-      <c r="L761" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M761" t="inlineStr">
         <is>
           <t>2020-02-18 19:08:21</t>
@@ -50474,11 +48089,6 @@
           <t>N916CS</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E762" t="inlineStr">
         <is>
           <t>2020-02-19 15:18:00</t>
@@ -50538,11 +48148,6 @@
           <t>N916CS</t>
         </is>
       </c>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E763" t="inlineStr">
         <is>
           <t>2020-02-19 21:50:46</t>
@@ -51040,11 +48645,6 @@
           <t>N801WC</t>
         </is>
       </c>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E770" t="inlineStr">
         <is>
           <t>2020-02-17 19:31:54</t>
@@ -51250,11 +48850,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E773" t="inlineStr">
         <is>
           <t>2020-02-07 12:21:41</t>
@@ -51314,11 +48909,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E774" t="inlineStr">
         <is>
           <t>2020-02-07 18:47:06</t>
@@ -51378,11 +48968,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E775" t="inlineStr">
         <is>
           <t>2020-02-13 14:05:37</t>
@@ -51397,11 +48982,6 @@
       <c r="K775" t="n">
         <v>12425</v>
       </c>
-      <c r="L775" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M775" t="inlineStr">
         <is>
           <t>2020-02-13 15:04:29</t>
@@ -51433,11 +49013,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E776" t="inlineStr">
         <is>
           <t>2020-02-13 16:03:35</t>
@@ -51497,11 +49072,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E777" t="inlineStr">
         <is>
           <t>2020-02-13 21:55:04</t>
@@ -51561,11 +49131,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E778" t="inlineStr">
         <is>
           <t>2020-02-15 13:29:51</t>
@@ -51625,11 +49190,6 @@
           <t>N600CB</t>
         </is>
       </c>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E779" t="inlineStr">
         <is>
           <t>2020-02-24 16:20:54</t>
@@ -51689,11 +49249,6 @@
           <t>N770FF</t>
         </is>
       </c>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E780" t="inlineStr">
         <is>
           <t>2020-02-04 01:11:54</t>
@@ -51826,11 +49381,6 @@
           <t>N770FF</t>
         </is>
       </c>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E782" t="inlineStr">
         <is>
           <t>2020-02-16 20:18:13</t>
@@ -51963,11 +49513,6 @@
           <t>N770FF</t>
         </is>
       </c>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E784" t="inlineStr">
         <is>
           <t>2020-02-24 21:34:21</t>
@@ -52128,11 +49673,6 @@
       <c r="K786" t="n">
         <v>3375</v>
       </c>
-      <c r="L786" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M786" t="inlineStr">
         <is>
           <t>2020-02-04 17:51:53</t>
@@ -52164,11 +49704,6 @@
           <t>N888WY</t>
         </is>
       </c>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E787" t="inlineStr">
         <is>
           <t>2020-02-04 20:18:32</t>
@@ -52329,11 +49864,6 @@
       <c r="K789" t="n">
         <v>1300</v>
       </c>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M789" t="inlineStr">
         <is>
           <t>2020-02-07 15:56:17</t>
@@ -52365,11 +49895,6 @@
           <t>N888WY</t>
         </is>
       </c>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E790" t="inlineStr">
         <is>
           <t>2020-02-08 00:11:04</t>
@@ -52429,11 +49954,6 @@
           <t>N982DW</t>
         </is>
       </c>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E791" t="inlineStr">
         <is>
           <t>2020-02-18 23:20:28</t>
@@ -52448,11 +49968,6 @@
       <c r="K791" t="n">
         <v>4350</v>
       </c>
-      <c r="L791" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M791" t="inlineStr">
         <is>
           <t>2020-02-19 00:11:16</t>
@@ -52484,11 +49999,6 @@
           <t>N982DW</t>
         </is>
       </c>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E792" t="inlineStr">
         <is>
           <t>2020-02-19 00:55:45</t>
@@ -53205,11 +50715,6 @@
           <t>N982DW</t>
         </is>
       </c>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E802" t="inlineStr">
         <is>
           <t>2020-02-28 17:26:15</t>
@@ -53342,11 +50847,6 @@
           <t>N982DW</t>
         </is>
       </c>
-      <c r="D804" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E804" t="inlineStr">
         <is>
           <t>2020-02-29 01:08:47</t>
@@ -53406,11 +50906,6 @@
           <t>N729JM</t>
         </is>
       </c>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E805" t="inlineStr">
         <is>
           <t>2020-02-18 19:45:06</t>
@@ -53470,11 +50965,6 @@
           <t>N729JM</t>
         </is>
       </c>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E806" t="inlineStr">
         <is>
           <t>2020-02-24 12:32:07</t>
@@ -53534,11 +51024,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E807" t="inlineStr">
         <is>
           <t>2020-02-07 15:21:22</t>
@@ -53598,11 +51083,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E808" t="inlineStr">
         <is>
           <t>2020-02-07 15:53:10</t>
@@ -53617,11 +51097,6 @@
       <c r="K808" t="n">
         <v>9600</v>
       </c>
-      <c r="L808" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M808" t="inlineStr">
         <is>
           <t>2020-02-07 16:28:06</t>
@@ -53653,11 +51128,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E809" t="inlineStr">
         <is>
           <t>2020-02-07 21:01:53</t>
@@ -53717,11 +51187,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E810" t="inlineStr">
         <is>
           <t>2020-02-12 14:34:23</t>
@@ -53809,11 +51274,6 @@
       <c r="K811" t="n">
         <v>9600</v>
       </c>
-      <c r="L811" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M811" t="inlineStr">
         <is>
           <t>2020-02-12 21:33:57</t>
@@ -53845,11 +51305,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E812" t="inlineStr">
         <is>
           <t>2020-02-17 16:36:40</t>
@@ -53864,11 +51319,6 @@
       <c r="K812" t="n">
         <v>9600</v>
       </c>
-      <c r="L812" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M812" t="inlineStr">
         <is>
           <t>2020-02-17 17:29:54</t>
@@ -53900,11 +51350,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E813" t="inlineStr">
         <is>
           <t>2020-02-18 14:07:56</t>
@@ -54037,11 +51482,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E815" t="inlineStr">
         <is>
           <t>2020-02-19 14:01:47</t>
@@ -54056,11 +51496,6 @@
       <c r="K815" t="n">
         <v>9600</v>
       </c>
-      <c r="L815" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M815" t="inlineStr">
         <is>
           <t>2020-02-19 14:35:59</t>
@@ -54092,11 +51527,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E816" t="inlineStr">
         <is>
           <t>2020-02-19 19:26:24</t>
@@ -54229,11 +51659,6 @@
           <t>N95SB</t>
         </is>
       </c>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E818" t="inlineStr">
         <is>
           <t>2020-02-21 13:12:26</t>
@@ -54832,11 +52257,6 @@
       <c r="K826" t="n">
         <v>424.9999999999999</v>
       </c>
-      <c r="L826" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M826" t="inlineStr">
         <is>
           <t>2020-02-28 17:44:19</t>
@@ -54868,11 +52288,6 @@
           <t>N750WR</t>
         </is>
       </c>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E827" t="inlineStr">
         <is>
           <t>2020-02-29 20:48:50</t>
@@ -55078,11 +52493,6 @@
           <t>N939SS</t>
         </is>
       </c>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E830" t="inlineStr">
         <is>
           <t>2020-02-05 18:13:53</t>
@@ -56091,11 +53501,6 @@
           <t>N333MX</t>
         </is>
       </c>
-      <c r="D844" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E844" t="inlineStr">
         <is>
           <t>2020-02-19 23:19:58</t>
@@ -56812,11 +54217,6 @@
           <t>N628CC</t>
         </is>
       </c>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E854" t="inlineStr">
         <is>
           <t>2020-02-15 00:00:05</t>
@@ -56831,11 +54231,6 @@
       <c r="K854" t="n">
         <v>-100</v>
       </c>
-      <c r="L854" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M854" t="inlineStr">
         <is>
           <t>2020-02-15 00:28:53</t>
@@ -56867,11 +54262,6 @@
           <t>N628CC</t>
         </is>
       </c>
-      <c r="D855" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E855" t="inlineStr">
         <is>
           <t>2020-02-15 02:07:32</t>
@@ -56959,11 +54349,6 @@
       <c r="K856" t="n">
         <v>125</v>
       </c>
-      <c r="L856" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M856" t="inlineStr">
         <is>
           <t>2020-02-17 15:40:59</t>
@@ -56995,11 +54380,6 @@
           <t>N628CC</t>
         </is>
       </c>
-      <c r="D857" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E857" t="inlineStr">
         <is>
           <t>2020-02-17 19:14:33</t>
@@ -57278,11 +54658,6 @@
           <t>N214SG</t>
         </is>
       </c>
-      <c r="D861" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E861" t="inlineStr">
         <is>
           <t>2020-02-03 16:32:05</t>
@@ -57415,11 +54790,6 @@
           <t>N214SG</t>
         </is>
       </c>
-      <c r="D863" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E863" t="inlineStr">
         <is>
           <t>2020-02-17 01:28:20</t>
@@ -57479,11 +54849,6 @@
           <t>N14WN</t>
         </is>
       </c>
-      <c r="D864" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E864" t="inlineStr">
         <is>
           <t>2020-02-09 20:29:13</t>
@@ -57498,11 +54863,6 @@
       <c r="K864" t="n">
         <v>10200</v>
       </c>
-      <c r="L864" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M864" t="inlineStr">
         <is>
           <t>2020-02-09 20:59:53</t>
@@ -57529,24 +54889,9 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C865" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E865" t="inlineStr">
         <is>
           <t>2020-02-25 12:27:45</t>
-        </is>
-      </c>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="M865" t="inlineStr">
@@ -57566,16 +54911,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C866" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D866" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E866" t="inlineStr">
         <is>
           <t>2020-02-26 21:07:56</t>
@@ -57603,16 +54938,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C867" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D867" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E867" t="inlineStr">
         <is>
           <t>2020-02-29 20:11:14</t>
@@ -57645,11 +54970,6 @@
           <t>N136KF</t>
         </is>
       </c>
-      <c r="D868" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E868" t="inlineStr">
         <is>
           <t>2020-02-10 16:38:51</t>
@@ -58001,11 +55321,6 @@
           <t>N136KF</t>
         </is>
       </c>
-      <c r="D873" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E873" t="inlineStr">
         <is>
           <t>2020-02-27 14:14:40</t>
@@ -58649,11 +55964,6 @@
           <t>N508RN</t>
         </is>
       </c>
-      <c r="D882" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E882" t="inlineStr">
         <is>
           <t>2020-02-11 23:44:59</t>
@@ -59000,11 +56310,6 @@
           <t>N952DA</t>
         </is>
       </c>
-      <c r="C887" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D887" t="inlineStr">
         <is>
           <t>KHYI</t>
@@ -59037,11 +56342,6 @@
           <t>DCM6082</t>
         </is>
       </c>
-      <c r="C888" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D888" t="inlineStr">
         <is>
           <t>KHYI</t>
@@ -59110,11 +56410,6 @@
           <t>N952DA</t>
         </is>
       </c>
-      <c r="C889" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D889" t="inlineStr">
         <is>
           <t>KEDC</t>
@@ -59147,11 +56442,6 @@
           <t>FFL220</t>
         </is>
       </c>
-      <c r="C890" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D890" t="inlineStr">
         <is>
           <t>KHYI</t>
@@ -59184,11 +56474,6 @@
           <t>FFL220</t>
         </is>
       </c>
-      <c r="C891" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D891" t="inlineStr">
         <is>
           <t>KSGR</t>
@@ -59221,11 +56506,6 @@
           <t>CMF1217</t>
         </is>
       </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D892" t="inlineStr">
         <is>
           <t>KBAZ</t>
@@ -59258,11 +56538,6 @@
           <t>CMF1217</t>
         </is>
       </c>
-      <c r="C893" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D893" t="inlineStr">
         <is>
           <t>KDWH</t>
@@ -59295,11 +56570,6 @@
           <t>FFL220</t>
         </is>
       </c>
-      <c r="C894" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D894" t="inlineStr">
         <is>
           <t>KHYI</t>
@@ -59332,11 +56602,6 @@
           <t>DCM6082</t>
         </is>
       </c>
-      <c r="C895" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D895" t="inlineStr">
         <is>
           <t>KEDC</t>
@@ -59405,11 +56670,6 @@
           <t>DCM6082</t>
         </is>
       </c>
-      <c r="C896" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D896" t="inlineStr">
         <is>
           <t>KHYI</t>
@@ -59478,11 +56738,6 @@
           <t>FFL220</t>
         </is>
       </c>
-      <c r="C897" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D897" t="inlineStr">
         <is>
           <t>KAUS</t>
@@ -59515,11 +56770,6 @@
           <t>CMF1217</t>
         </is>
       </c>
-      <c r="C898" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D898" t="inlineStr">
         <is>
           <t>KAUS</t>
@@ -59552,16 +56802,6 @@
           <t>CMF1217</t>
         </is>
       </c>
-      <c r="C899" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D899" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E899" t="inlineStr">
         <is>
           <t>2020-02-29 18:42:40</t>
@@ -59589,11 +56829,6 @@
           <t>FFL220</t>
         </is>
       </c>
-      <c r="C900" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D900" t="inlineStr">
         <is>
           <t>KDWH</t>
@@ -59732,11 +56967,6 @@
       <c r="K902" t="n">
         <v>1350</v>
       </c>
-      <c r="L902" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M902" t="inlineStr">
         <is>
           <t>2020-02-05 23:29:28</t>
@@ -59768,11 +56998,6 @@
           <t>N87CE</t>
         </is>
       </c>
-      <c r="D903" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E903" t="inlineStr">
         <is>
           <t>2020-02-06 00:29:53</t>
@@ -59860,11 +57085,6 @@
       <c r="K904" t="n">
         <v>1350</v>
       </c>
-      <c r="L904" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M904" t="inlineStr">
         <is>
           <t>2020-02-06 23:04:52</t>
@@ -59896,11 +57116,6 @@
           <t>N87CE</t>
         </is>
       </c>
-      <c r="D905" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E905" t="inlineStr">
         <is>
           <t>2020-02-07 00:39:30</t>
@@ -59988,11 +57203,6 @@
       <c r="K906" t="n">
         <v>1350</v>
       </c>
-      <c r="L906" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M906" t="inlineStr">
         <is>
           <t>2020-02-10 17:44:43</t>
@@ -60024,11 +57234,6 @@
           <t>N87CE</t>
         </is>
       </c>
-      <c r="D907" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E907" t="inlineStr">
         <is>
           <t>2020-02-10 19:40:09</t>
@@ -60161,11 +57366,6 @@
           <t>N87CE</t>
         </is>
       </c>
-      <c r="D909" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E909" t="inlineStr">
         <is>
           <t>2020-02-17 20:26:45</t>
@@ -60253,11 +57453,6 @@
       <c r="K910" t="n">
         <v>1350</v>
       </c>
-      <c r="L910" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M910" t="inlineStr">
         <is>
           <t>2020-02-21 22:44:58</t>
@@ -60289,11 +57484,6 @@
           <t>N87CE</t>
         </is>
       </c>
-      <c r="D911" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E911" t="inlineStr">
         <is>
           <t>2020-02-22 20:27:53</t>
@@ -60673,11 +57863,6 @@
       <c r="K916" t="n">
         <v/>
       </c>
-      <c r="L916" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M916" t="inlineStr">
         <is>
           <t>2020-02-04 14:40:59</t>
@@ -60709,11 +57894,6 @@
           <t>N553GR</t>
         </is>
       </c>
-      <c r="D917" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E917" t="inlineStr">
         <is>
           <t>2020-02-04 17:48:43</t>
@@ -60728,11 +57908,6 @@
       <c r="K917" t="n">
         <v>7675</v>
       </c>
-      <c r="L917" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M917" t="inlineStr">
         <is>
           <t>2020-02-04 18:02:35</t>
@@ -60764,11 +57939,6 @@
           <t>N553GR</t>
         </is>
       </c>
-      <c r="D918" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E918" t="inlineStr">
         <is>
           <t>2020-02-04 22:25:04</t>
@@ -60828,11 +57998,6 @@
           <t>N553GR</t>
         </is>
       </c>
-      <c r="D919" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E919" t="inlineStr">
         <is>
           <t>2020-02-19 23:54:07</t>
@@ -60920,11 +58085,6 @@
       <c r="K920" t="n">
         <v>3550</v>
       </c>
-      <c r="L920" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M920" t="inlineStr">
         <is>
           <t>2020-02-03 03:40:51</t>
@@ -60956,11 +58116,6 @@
           <t>N195CA</t>
         </is>
       </c>
-      <c r="D921" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E921" t="inlineStr">
         <is>
           <t>2020-02-03 15:07:11</t>
@@ -61486,11 +58641,6 @@
       <c r="K928" t="n">
         <v>2950</v>
       </c>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M928" t="inlineStr">
         <is>
           <t>2020-02-15 01:15:23</t>
@@ -61522,11 +58672,6 @@
           <t>N195CA</t>
         </is>
       </c>
-      <c r="D929" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E929" t="inlineStr">
         <is>
           <t>2020-02-16 22:08:17</t>
@@ -61805,11 +58950,6 @@
           <t>N195CA</t>
         </is>
       </c>
-      <c r="D933" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E933" t="inlineStr">
         <is>
           <t>2020-02-24 15:50:03</t>
@@ -62088,11 +59228,6 @@
           <t>N195CA</t>
         </is>
       </c>
-      <c r="D937" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E937" t="inlineStr">
         <is>
           <t>2020-02-25 22:28:06</t>
@@ -62253,11 +59388,6 @@
       <c r="K939" t="n">
         <v>45000</v>
       </c>
-      <c r="L939" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M939" t="inlineStr">
         <is>
           <t>2020-02-11 15:25:24</t>
@@ -62289,11 +59419,6 @@
           <t>N464GR</t>
         </is>
       </c>
-      <c r="D940" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E940" t="inlineStr">
         <is>
           <t>2020-02-11 22:16:30</t>
@@ -62353,11 +59478,6 @@
           <t>N464GR</t>
         </is>
       </c>
-      <c r="D941" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E941" t="inlineStr">
         <is>
           <t>2020-02-12 17:15:24</t>
@@ -62372,11 +59492,6 @@
       <c r="K941" t="n">
         <v>45000</v>
       </c>
-      <c r="L941" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M941" t="inlineStr">
         <is>
           <t>2020-02-12 19:53:22</t>
@@ -62728,11 +59843,6 @@
       <c r="K946" t="n">
         <v>45000</v>
       </c>
-      <c r="L946" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M946" t="inlineStr">
         <is>
           <t>2020-02-19 15:22:52</t>
@@ -62847,11 +59957,6 @@
       <c r="K948" t="n">
         <v>3650</v>
       </c>
-      <c r="L948" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M948" t="inlineStr">
         <is>
           <t>2020-02-09 20:39:55</t>
@@ -62883,11 +59988,6 @@
           <t>N346PC</t>
         </is>
       </c>
-      <c r="D949" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E949" t="inlineStr">
         <is>
           <t>2020-02-10 20:28:02</t>
@@ -62947,11 +60047,6 @@
           <t>N346PC</t>
         </is>
       </c>
-      <c r="D950" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E950" t="inlineStr">
         <is>
           <t>2020-02-17 21:18:48</t>
@@ -63011,11 +60106,6 @@
           <t>N346PC</t>
         </is>
       </c>
-      <c r="D951" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E951" t="inlineStr">
         <is>
           <t>2020-02-23 19:53:18</t>
@@ -63103,11 +60193,6 @@
       <c r="K952" t="n">
         <v>1975</v>
       </c>
-      <c r="L952" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M952" t="inlineStr">
         <is>
           <t>2020-02-24 01:04:53</t>
@@ -63139,11 +60224,6 @@
           <t>N346PC</t>
         </is>
       </c>
-      <c r="D953" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E953" t="inlineStr">
         <is>
           <t>2020-02-24 20:24:56</t>
@@ -63231,11 +60311,6 @@
       <c r="K954" t="n">
         <v>100</v>
       </c>
-      <c r="L954" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M954" t="inlineStr">
         <is>
           <t>2020-02-11 18:00:59</t>
@@ -63267,11 +60342,6 @@
           <t>N700CJ</t>
         </is>
       </c>
-      <c r="D955" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E955" t="inlineStr">
         <is>
           <t>2020-02-12 00:04:37</t>
@@ -63331,11 +60401,6 @@
           <t>N700CJ</t>
         </is>
       </c>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E956" t="inlineStr">
         <is>
           <t>2020-02-17 23:34:27</t>
@@ -63536,16 +60601,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C959" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D959" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E959" t="inlineStr">
         <is>
           <t>2020-02-10 19:04:51</t>
@@ -63600,11 +60655,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C960" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D960" t="inlineStr">
         <is>
           <t>KPHL</t>
@@ -63673,11 +60723,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D961" t="inlineStr">
         <is>
           <t>KPHF</t>
@@ -63746,11 +60791,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D962" t="inlineStr">
         <is>
           <t>KCLT</t>
@@ -63779,11 +60819,6 @@
       <c r="K962" t="n">
         <v>2950</v>
       </c>
-      <c r="L962" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M962" t="inlineStr">
         <is>
           <t>2020-02-12 19:19:13</t>
@@ -63810,16 +60845,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C963" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D963" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E963" t="inlineStr">
         <is>
           <t>2020-02-12 20:17:55</t>
@@ -63874,11 +60899,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D964" t="inlineStr">
         <is>
           <t>KPHL</t>
@@ -63947,16 +60967,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E965" t="inlineStr">
         <is>
           <t>2020-02-17 12:46:35</t>
@@ -64011,11 +61021,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D966" t="inlineStr">
         <is>
           <t>KCWA</t>
@@ -64044,11 +61049,6 @@
       <c r="K966" t="n">
         <v>1675</v>
       </c>
-      <c r="L966" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M966" t="inlineStr">
         <is>
           <t>2020-02-18 21:53:46</t>
@@ -64075,16 +61075,6 @@
           <t>DCM3084</t>
         </is>
       </c>
-      <c r="C967" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E967" t="inlineStr">
         <is>
           <t>2020-02-19 19:01:48</t>
@@ -64139,11 +61129,6 @@
           <t>DCMCA</t>
         </is>
       </c>
-      <c r="C968" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D968" t="inlineStr">
         <is>
           <t>LEPA</t>
@@ -64194,11 +61179,6 @@
           <t>DCMCA</t>
         </is>
       </c>
-      <c r="C969" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D969" t="inlineStr">
         <is>
           <t>EDDS</t>
@@ -64249,11 +61229,6 @@
           <t>DCMCA</t>
         </is>
       </c>
-      <c r="C970" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D970" t="inlineStr">
         <is>
           <t>EKRK</t>
@@ -64304,11 +61279,6 @@
           <t>DCMCA</t>
         </is>
       </c>
-      <c r="C971" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D971" t="inlineStr">
         <is>
           <t>EDDS</t>
@@ -64359,11 +61329,6 @@
           <t>DCMCA</t>
         </is>
       </c>
-      <c r="C972" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D972" t="inlineStr">
         <is>
           <t>LFPB</t>
@@ -64414,11 +61379,6 @@
           <t>DCMCA</t>
         </is>
       </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D973" t="inlineStr">
         <is>
           <t>EDDS</t>
@@ -64469,11 +61429,6 @@
           <t>DCM3460</t>
         </is>
       </c>
-      <c r="C974" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D974" t="inlineStr">
         <is>
           <t>KGRB</t>
@@ -64542,11 +61497,6 @@
           <t>DCM3460</t>
         </is>
       </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D975" t="inlineStr">
         <is>
           <t>4MI0</t>
@@ -64615,11 +61565,6 @@
           <t>DCM3460</t>
         </is>
       </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D976" t="inlineStr">
         <is>
           <t>KMYF</t>
@@ -64688,11 +61633,6 @@
           <t>DCM3460</t>
         </is>
       </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D977" t="inlineStr">
         <is>
           <t>KPVU</t>
@@ -64721,11 +61661,6 @@
       <c r="K977" t="n">
         <v>5000</v>
       </c>
-      <c r="L977" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M977" t="inlineStr">
         <is>
           <t>2020-02-27 21:47:28</t>
@@ -64752,16 +61687,6 @@
           <t>DCM3460</t>
         </is>
       </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E978" t="inlineStr">
         <is>
           <t>2020-02-27 23:14:40</t>
@@ -64821,11 +61746,6 @@
           <t>N748QS</t>
         </is>
       </c>
-      <c r="D979" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E979" t="inlineStr">
         <is>
           <t>2020-02-13 18:32:55</t>
@@ -64885,11 +61805,6 @@
           <t>N748QS</t>
         </is>
       </c>
-      <c r="D980" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E980" t="inlineStr">
         <is>
           <t>2020-02-28 16:54:46</t>
@@ -65269,11 +62184,6 @@
       <c r="K985" t="n">
         <v>500</v>
       </c>
-      <c r="L985" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M985" t="inlineStr">
         <is>
           <t>2020-02-06 23:50:27</t>
@@ -65816,11 +62726,6 @@
           <t>N254FS</t>
         </is>
       </c>
-      <c r="D993" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E993" t="inlineStr">
         <is>
           <t>2020-02-09 23:04:55</t>
@@ -65953,11 +62858,6 @@
           <t>N254FS</t>
         </is>
       </c>
-      <c r="D995" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E995" t="inlineStr">
         <is>
           <t>2020-02-24 13:12:29</t>
@@ -66045,11 +62945,6 @@
       <c r="K996" t="n">
         <v>3200</v>
       </c>
-      <c r="L996" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M996" t="inlineStr">
         <is>
           <t>2020-02-24 14:51:26</t>
@@ -66081,11 +62976,6 @@
           <t>N254FS</t>
         </is>
       </c>
-      <c r="D997" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E997" t="inlineStr">
         <is>
           <t>2020-02-25 20:54:38</t>
@@ -66145,11 +63035,6 @@
           <t>N254FS</t>
         </is>
       </c>
-      <c r="D998" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E998" t="inlineStr">
         <is>
           <t>2020-02-26 16:06:22</t>
@@ -66164,11 +63049,6 @@
       <c r="K998" t="n">
         <v>11925</v>
       </c>
-      <c r="L998" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M998" t="inlineStr">
         <is>
           <t>2020-02-26 16:29:59</t>
@@ -66200,11 +63080,6 @@
           <t>N561GG</t>
         </is>
       </c>
-      <c r="D999" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E999" t="inlineStr">
         <is>
           <t>2020-02-01 18:08:29</t>
@@ -66219,11 +63094,6 @@
       <c r="K999" t="n">
         <v>9199.999999999998</v>
       </c>
-      <c r="L999" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M999" t="inlineStr">
         <is>
           <t>2020-02-01 19:09:58</t>
@@ -66255,11 +63125,6 @@
           <t>N561GG</t>
         </is>
       </c>
-      <c r="D1000" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1000" t="inlineStr">
         <is>
           <t>2020-02-01 21:55:37</t>
@@ -66319,11 +63184,6 @@
           <t>N561GG</t>
         </is>
       </c>
-      <c r="D1001" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1001" t="inlineStr">
         <is>
           <t>2020-02-05 15:28:36</t>
@@ -66383,11 +63243,6 @@
           <t>N561GG</t>
         </is>
       </c>
-      <c r="D1002" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1002" t="inlineStr">
         <is>
           <t>2020-02-10 15:43:11</t>
@@ -66520,11 +63375,6 @@
           <t>N561GG</t>
         </is>
       </c>
-      <c r="D1004" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1004" t="inlineStr">
         <is>
           <t>2020-02-11 14:55:30</t>
@@ -66539,11 +63389,6 @@
       <c r="K1004" t="n">
         <v>15800</v>
       </c>
-      <c r="L1004" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1004" t="inlineStr">
         <is>
           <t>2020-02-11 15:19:47</t>
@@ -66575,11 +63420,6 @@
           <t>N561GG</t>
         </is>
       </c>
-      <c r="D1005" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1005" t="inlineStr">
         <is>
           <t>2020-02-19 16:09:38</t>
@@ -66639,11 +63479,6 @@
           <t>N915BD</t>
         </is>
       </c>
-      <c r="D1006" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1006" t="inlineStr">
         <is>
           <t>2020-02-04 14:45:29</t>
@@ -66703,11 +63538,6 @@
           <t>N915BD</t>
         </is>
       </c>
-      <c r="D1007" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1007" t="inlineStr">
         <is>
           <t>2020-02-11 14:13:28</t>
@@ -66868,11 +63698,6 @@
       <c r="K1009" t="n">
         <v>-50</v>
       </c>
-      <c r="L1009" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1009" t="inlineStr">
         <is>
           <t>2020-02-12 21:46:29</t>
@@ -66904,11 +63729,6 @@
           <t>N915BD</t>
         </is>
       </c>
-      <c r="D1010" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1010" t="inlineStr">
         <is>
           <t>2020-02-12 22:47:36</t>
@@ -66923,11 +63743,6 @@
       <c r="K1010" t="n">
         <v>30200</v>
       </c>
-      <c r="L1010" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1010" t="inlineStr">
         <is>
           <t>2020-02-12 23:05:28</t>
@@ -66959,11 +63774,6 @@
           <t>N915BD</t>
         </is>
       </c>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1011" t="inlineStr">
         <is>
           <t>2020-02-21 16:17:07</t>
@@ -67169,11 +63979,6 @@
           <t>N915BD</t>
         </is>
       </c>
-      <c r="D1014" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1014" t="inlineStr">
         <is>
           <t>2020-02-23 19:54:25</t>
@@ -67301,11 +64106,6 @@
           <t>DCM2244</t>
         </is>
       </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1016" t="inlineStr">
         <is>
           <t>CYUL</t>
@@ -67356,16 +64156,6 @@
           <t>DCM2244</t>
         </is>
       </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1017" t="inlineStr">
         <is>
           <t>2020-02-09 20:14:40</t>
@@ -67420,11 +64210,6 @@
           <t>DCM2244</t>
         </is>
       </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1018" t="inlineStr">
         <is>
           <t>KPHL</t>
@@ -67484,16 +64269,6 @@
           <t>DCM2244</t>
         </is>
       </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1019" t="inlineStr">
         <is>
           <t>2020-02-16 23:27:09</t>
@@ -67763,11 +64538,6 @@
           <t>N605KB</t>
         </is>
       </c>
-      <c r="D1023" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1023" t="inlineStr">
         <is>
           <t>2020-02-09 20:43:22</t>
@@ -67928,11 +64698,6 @@
       <c r="K1025" t="n">
         <v>300</v>
       </c>
-      <c r="L1025" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1025" t="inlineStr">
         <is>
           <t>2020-02-17 16:59:53</t>
@@ -68065,11 +64830,6 @@
       <c r="K1027" t="n">
         <v>3850</v>
       </c>
-      <c r="L1027" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1027" t="inlineStr">
         <is>
           <t>2020-02-20 18:07:26</t>
@@ -68713,11 +65473,6 @@
       <c r="K1036" t="n">
         <v>250</v>
       </c>
-      <c r="L1036" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1036" t="inlineStr">
         <is>
           <t>2020-02-20 20:55:57</t>
@@ -68749,11 +65504,6 @@
           <t>N466JB</t>
         </is>
       </c>
-      <c r="D1037" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1037" t="inlineStr">
         <is>
           <t>2020-02-20 23:53:46</t>
@@ -68959,11 +65709,6 @@
           <t>N481AM</t>
         </is>
       </c>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1040" t="inlineStr">
         <is>
           <t>2020-02-03 13:28:16</t>
@@ -68978,11 +65723,6 @@
       <c r="K1040" t="n">
         <v>30000</v>
       </c>
-      <c r="L1040" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1040" t="inlineStr">
         <is>
           <t>2020-02-03 13:42:21</t>
@@ -69014,11 +65754,6 @@
           <t>N481AM</t>
         </is>
       </c>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1041" t="inlineStr">
         <is>
           <t>2020-02-04 19:43:40</t>
@@ -69033,11 +65768,6 @@
       <c r="K1041" t="n">
         <v>32975</v>
       </c>
-      <c r="L1041" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1041" t="inlineStr">
         <is>
           <t>2020-02-04 19:53:53</t>
@@ -69069,11 +65799,6 @@
           <t>N481AM</t>
         </is>
       </c>
-      <c r="D1042" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1042" t="inlineStr">
         <is>
           <t>2020-02-04 21:10:30</t>
@@ -69088,11 +65813,6 @@
       <c r="K1042" t="n">
         <v>14275</v>
       </c>
-      <c r="L1042" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1042" t="inlineStr">
         <is>
           <t>2020-02-04 22:18:53</t>
@@ -69119,16 +65839,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C1043" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1043" t="inlineStr">
         <is>
           <t>2020-02-23 14:38:35</t>
@@ -69156,11 +65866,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C1044" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1044" t="inlineStr">
         <is>
           <t>KPDK</t>
@@ -69169,11 +65874,6 @@
       <c r="E1044" t="inlineStr">
         <is>
           <t>2020-02-23 20:57:46</t>
-        </is>
-      </c>
-      <c r="L1044" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr">
@@ -69193,16 +65893,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C1045" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1045" t="inlineStr">
         <is>
           <t>2020-02-24 16:38:14</t>
@@ -69230,11 +65920,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C1046" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1046" t="inlineStr">
         <is>
           <t>KSLC</t>
@@ -69267,11 +65952,6 @@
           <t>00000000</t>
         </is>
       </c>
-      <c r="C1047" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1047" t="inlineStr">
         <is>
           <t>KPHX</t>
@@ -69337,11 +66017,6 @@
       <c r="K1048" t="n">
         <v>3250</v>
       </c>
-      <c r="L1048" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1048" t="inlineStr">
         <is>
           <t>2020-02-01 15:38:50</t>
@@ -69373,11 +66048,6 @@
           <t>N341HB</t>
         </is>
       </c>
-      <c r="D1049" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1049" t="inlineStr">
         <is>
           <t>2020-02-01 16:15:22</t>
@@ -69465,11 +66135,6 @@
       <c r="K1050" t="n">
         <v>2775</v>
       </c>
-      <c r="L1050" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1050" t="inlineStr">
         <is>
           <t>2020-02-02 19:06:28</t>
@@ -69501,11 +66166,6 @@
           <t>N341HB</t>
         </is>
       </c>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1051" t="inlineStr">
         <is>
           <t>2020-02-02 19:53:19</t>
@@ -69593,11 +66253,6 @@
       <c r="K1052" t="n">
         <v>2875</v>
       </c>
-      <c r="L1052" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1052" t="inlineStr">
         <is>
           <t>2020-02-05 21:45:28</t>
@@ -69629,11 +66284,6 @@
           <t>N341HB</t>
         </is>
       </c>
-      <c r="D1053" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1053" t="inlineStr">
         <is>
           <t>2020-02-05 22:55:49</t>
@@ -69721,11 +66371,6 @@
       <c r="K1054" t="n">
         <v>2950</v>
       </c>
-      <c r="L1054" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1054" t="inlineStr">
         <is>
           <t>2020-02-07 21:39:28</t>
@@ -69757,11 +66402,6 @@
           <t>N341HB</t>
         </is>
       </c>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1055" t="inlineStr">
         <is>
           <t>2020-02-07 23:08:08</t>
@@ -69849,11 +66489,6 @@
       <c r="K1056" t="n">
         <v>2875</v>
       </c>
-      <c r="L1056" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1056" t="inlineStr">
         <is>
           <t>2020-02-12 21:34:25</t>
@@ -69885,11 +66520,6 @@
           <t>N341HB</t>
         </is>
       </c>
-      <c r="D1057" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1057" t="inlineStr">
         <is>
           <t>2020-02-12 22:16:43</t>
@@ -70022,11 +66652,6 @@
           <t>N341HB</t>
         </is>
       </c>
-      <c r="D1059" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1059" t="inlineStr">
         <is>
           <t>2020-02-20 20:53:12</t>
@@ -70227,11 +66852,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1062" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1062" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -70300,11 +66920,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1063" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1063" t="inlineStr">
         <is>
           <t>KAPF</t>
@@ -70373,11 +66988,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1064" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1064" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -70446,11 +67056,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1065" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1065" t="inlineStr">
         <is>
           <t>FA37</t>
@@ -70519,11 +67124,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1066" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1066" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -70592,11 +67192,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1067" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1067" t="inlineStr">
         <is>
           <t>KTEB</t>
@@ -70665,11 +67260,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1068" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1068" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -70738,11 +67328,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1069" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1069" t="inlineStr">
         <is>
           <t>KADS</t>
@@ -70811,11 +67396,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1070" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1070" t="inlineStr">
         <is>
           <t>KMDT</t>
@@ -70884,11 +67464,6 @@
           <t>DCM4120</t>
         </is>
       </c>
-      <c r="C1071" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1071" t="inlineStr">
         <is>
           <t>OI45</t>
@@ -70990,11 +67565,6 @@
       <c r="K1072" t="n">
         <v>2300</v>
       </c>
-      <c r="L1072" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1072" t="inlineStr">
         <is>
           <t>2020-02-04 16:24:53</t>
@@ -71026,11 +67596,6 @@
           <t>N917BC</t>
         </is>
       </c>
-      <c r="D1073" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1073" t="inlineStr">
         <is>
           <t>2020-02-04 22:56:32</t>
@@ -71191,11 +67756,6 @@
       <c r="K1075" t="n">
         <v>2375</v>
       </c>
-      <c r="L1075" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1075" t="inlineStr">
         <is>
           <t>2020-02-10 19:39:29</t>
@@ -71227,11 +67787,6 @@
           <t>N917BC</t>
         </is>
       </c>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1076" t="inlineStr">
         <is>
           <t>2020-02-10 23:24:37</t>
@@ -71656,11 +68211,6 @@
           <t>N917BC</t>
         </is>
       </c>
-      <c r="D1082" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1082" t="inlineStr">
         <is>
           <t>2020-02-25 20:43:14</t>
@@ -71720,11 +68270,6 @@
           <t>N5GU</t>
         </is>
       </c>
-      <c r="D1083" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1083" t="inlineStr">
         <is>
           <t>2020-02-02 03:16:21</t>
@@ -72003,11 +68548,6 @@
           <t>N5GU</t>
         </is>
       </c>
-      <c r="D1087" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1087" t="inlineStr">
         <is>
           <t>2020-02-28 17:13:26</t>
@@ -72067,11 +68607,6 @@
           <t>N502PM</t>
         </is>
       </c>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1088" t="inlineStr">
         <is>
           <t>2020-02-07 13:48:08</t>
@@ -72131,11 +68666,6 @@
           <t>N502PM</t>
         </is>
       </c>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1089" t="inlineStr">
         <is>
           <t>2020-02-13 18:50:51</t>
@@ -72268,11 +68798,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1091" t="inlineStr">
         <is>
           <t>2020-02-06 00:27:05</t>
@@ -72798,11 +69323,6 @@
       <c r="K1098" t="n">
         <v>1400</v>
       </c>
-      <c r="L1098" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1098" t="inlineStr">
         <is>
           <t>2020-02-11 15:55:01</t>
@@ -72834,11 +69354,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1099" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1099" t="inlineStr">
         <is>
           <t>2020-02-11 16:50:02</t>
@@ -72971,11 +69486,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1101" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1101" t="inlineStr">
         <is>
           <t>2020-02-12 21:31:13</t>
@@ -73063,11 +69573,6 @@
       <c r="K1102" t="n">
         <v>1225</v>
       </c>
-      <c r="L1102" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1102" t="inlineStr">
         <is>
           <t>2020-02-13 03:23:55</t>
@@ -73099,11 +69604,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1103" t="inlineStr">
         <is>
           <t>2020-02-13 16:11:56</t>
@@ -73191,11 +69691,6 @@
       <c r="K1104" t="n">
         <v>1700</v>
       </c>
-      <c r="L1104" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1104" t="inlineStr">
         <is>
           <t>2020-02-13 18:25:11</t>
@@ -73227,11 +69722,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1105" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1105" t="inlineStr">
         <is>
           <t>2020-02-13 19:14:17</t>
@@ -73291,11 +69781,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1106" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1106" t="inlineStr">
         <is>
           <t>2020-02-15 00:00:50</t>
@@ -73720,11 +70205,6 @@
           <t>N3616</t>
         </is>
       </c>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1112" t="inlineStr">
         <is>
           <t>2020-02-24 18:16:27</t>
@@ -73930,11 +70410,6 @@
           <t>N595PL</t>
         </is>
       </c>
-      <c r="D1115" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1115" t="inlineStr">
         <is>
           <t>2020-02-17 20:02:27</t>
@@ -73994,11 +70469,6 @@
           <t>N595PL</t>
         </is>
       </c>
-      <c r="D1116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1116" t="inlineStr">
         <is>
           <t>2020-02-18 15:15:41</t>
@@ -74053,16 +70523,6 @@
           <t>NS95PL</t>
         </is>
       </c>
-      <c r="C1117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1117" t="inlineStr">
         <is>
           <t>2020-02-24 15:46:47</t>
@@ -74095,11 +70555,6 @@
           <t>N866PC</t>
         </is>
       </c>
-      <c r="D1118" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1118" t="inlineStr">
         <is>
           <t>2020-02-02 17:31:43</t>
@@ -74187,11 +70642,6 @@
       <c r="K1119" t="n">
         <v>800</v>
       </c>
-      <c r="L1119" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1119" t="inlineStr">
         <is>
           <t>2020-02-22 15:30:24</t>
@@ -74324,11 +70774,6 @@
       <c r="K1121" t="n">
         <v>1125</v>
       </c>
-      <c r="L1121" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1121" t="inlineStr">
         <is>
           <t>2020-02-24 16:39:46</t>
@@ -74360,11 +70805,6 @@
           <t>N866PC</t>
         </is>
       </c>
-      <c r="D1122" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1122" t="inlineStr">
         <is>
           <t>2020-02-24 20:10:08</t>
@@ -75373,11 +71813,6 @@
           <t>N613CS</t>
         </is>
       </c>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1136" t="inlineStr">
         <is>
           <t>2020-02-20 21:01:40</t>
@@ -75510,11 +71945,6 @@
           <t>N993JL</t>
         </is>
       </c>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1138" t="inlineStr">
         <is>
           <t>2020-02-04 17:23:23</t>
@@ -75602,11 +72032,6 @@
       <c r="K1139" t="n">
         <v>2250</v>
       </c>
-      <c r="L1139" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1139" t="inlineStr">
         <is>
           <t>2020-02-07 17:56:36</t>
@@ -75638,11 +72063,6 @@
           <t>N993JL</t>
         </is>
       </c>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1140" t="inlineStr">
         <is>
           <t>2020-02-13 18:15:08</t>
@@ -75775,11 +72195,6 @@
           <t>N993JL</t>
         </is>
       </c>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1142" t="inlineStr">
         <is>
           <t>2020-02-19 15:57:18</t>
@@ -75912,11 +72327,6 @@
           <t>N993JL</t>
         </is>
       </c>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1144" t="inlineStr">
         <is>
           <t>2020-02-23 23:06:03</t>
@@ -76761,11 +73171,6 @@
           <t>N615CL</t>
         </is>
       </c>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1156" t="inlineStr">
         <is>
           <t>2020-02-23 01:31:41</t>
@@ -76825,11 +73230,6 @@
           <t>N615CL</t>
         </is>
       </c>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1157" t="inlineStr">
         <is>
           <t>2020-02-23 17:59:30</t>
@@ -77282,11 +73682,6 @@
       <c r="K1163" t="n">
         <v>2425</v>
       </c>
-      <c r="L1163" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1163" t="inlineStr">
         <is>
           <t>2020-02-01 08:21:21</t>
@@ -77318,11 +73713,6 @@
           <t>N853WM</t>
         </is>
       </c>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1164" t="inlineStr">
         <is>
           <t>2020-02-01 11:35:04</t>
@@ -77483,11 +73873,6 @@
       <c r="K1166" t="n">
         <v>2425</v>
       </c>
-      <c r="L1166" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1166" t="inlineStr">
         <is>
           <t>2020-02-05 12:41:59</t>
@@ -77519,11 +73904,6 @@
           <t>N853WM</t>
         </is>
       </c>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1167" t="inlineStr">
         <is>
           <t>2020-02-05 22:07:50</t>
@@ -77611,11 +73991,6 @@
       <c r="K1168" t="n">
         <v>2425</v>
       </c>
-      <c r="L1168" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1168" t="inlineStr">
         <is>
           <t>2020-02-11 13:20:47</t>
@@ -77647,11 +74022,6 @@
           <t>N853WM</t>
         </is>
       </c>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1169" t="inlineStr">
         <is>
           <t>2020-02-11 22:29:15</t>
@@ -77784,11 +74154,6 @@
           <t>N853WM</t>
         </is>
       </c>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1171" t="inlineStr">
         <is>
           <t>2020-02-12 22:35:33</t>
@@ -78505,11 +74870,6 @@
           <t>N853WM</t>
         </is>
       </c>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1181" t="inlineStr">
         <is>
           <t>2020-02-26 04:48:21</t>
@@ -78743,11 +75103,6 @@
       <c r="K1184" t="n">
         <v>6025</v>
       </c>
-      <c r="L1184" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1184" t="inlineStr">
         <is>
           <t>2020-02-19 19:20:50</t>
@@ -78779,11 +75134,6 @@
           <t>N801WZ</t>
         </is>
       </c>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1185" t="inlineStr">
         <is>
           <t>2020-02-20 19:18:32</t>
@@ -78944,11 +75294,6 @@
       <c r="K1187" t="n">
         <v>2050</v>
       </c>
-      <c r="L1187" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1187" t="inlineStr">
         <is>
           <t>2020-02-25 16:46:52</t>
@@ -78980,11 +75325,6 @@
           <t>N982BZ</t>
         </is>
       </c>
-      <c r="D1188" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1188" t="inlineStr">
         <is>
           <t>2020-02-26 20:54:40</t>
@@ -79190,11 +75530,6 @@
           <t>N855SC</t>
         </is>
       </c>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1191" t="inlineStr">
         <is>
           <t>2020-02-04 19:12:26</t>
@@ -79866,11 +76201,6 @@
       <c r="K1200" t="n">
         <v>-275.0000000000001</v>
       </c>
-      <c r="L1200" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1200" t="inlineStr">
         <is>
           <t>2020-02-20 12:11:57</t>
@@ -79902,11 +76232,6 @@
           <t>N313CC</t>
         </is>
       </c>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1201" t="inlineStr">
         <is>
           <t>2020-02-20 16:25:15</t>
@@ -79994,11 +76319,6 @@
       <c r="K1202" t="n">
         <v>500</v>
       </c>
-      <c r="L1202" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1202" t="inlineStr">
         <is>
           <t>2020-02-20 22:04:44</t>
@@ -80030,11 +76350,6 @@
           <t>N313CC</t>
         </is>
       </c>
-      <c r="D1203" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1203" t="inlineStr">
         <is>
           <t>2020-02-21 01:07:17</t>
@@ -80094,11 +76409,6 @@
           <t>N81SF</t>
         </is>
       </c>
-      <c r="D1204" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1204" t="inlineStr">
         <is>
           <t>2020-02-08 12:11:37</t>
@@ -80450,11 +76760,6 @@
           <t>N81SF</t>
         </is>
       </c>
-      <c r="D1209" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1209" t="inlineStr">
         <is>
           <t>2020-02-20 22:27:46</t>
@@ -80715,11 +77020,6 @@
           <t>N484CA</t>
         </is>
       </c>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1213" t="inlineStr">
         <is>
           <t>2020-02-05 22:08:33</t>
@@ -80774,16 +77074,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1214" t="inlineStr">
         <is>
           <t>2020-02-03 11:05:52</t>
@@ -80838,11 +77128,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1215" t="inlineStr">
         <is>
           <t>KSDL</t>
@@ -80911,11 +77196,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1216" t="inlineStr">
         <is>
           <t>KHWD</t>
@@ -80984,11 +77264,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1217" t="inlineStr">
         <is>
           <t>KSDL</t>
@@ -81057,16 +77332,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1218" t="inlineStr">
         <is>
           <t>2020-02-10 12:13:45</t>
@@ -81121,16 +77386,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1219" t="inlineStr">
         <is>
           <t>2020-02-17 12:06:52</t>
@@ -81185,11 +77440,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1220" t="inlineStr">
         <is>
           <t>KSDL</t>
@@ -81218,11 +77468,6 @@
       <c r="K1220" t="n">
         <v>1600</v>
       </c>
-      <c r="L1220" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1220" t="inlineStr">
         <is>
           <t>2020-02-21 04:22:08</t>
@@ -81249,16 +77494,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1221" t="inlineStr">
         <is>
           <t>2020-02-21 05:07:28</t>
@@ -81313,11 +77548,6 @@
           <t>DCM6072</t>
         </is>
       </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="D1222" t="inlineStr">
         <is>
           <t>KIWA</t>
@@ -82194,11 +78424,6 @@
           <t>N980DW</t>
         </is>
       </c>
-      <c r="D1234" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1234" t="inlineStr">
         <is>
           <t>2020-02-05 21:51:52</t>
@@ -82258,11 +78483,6 @@
           <t>N980DW</t>
         </is>
       </c>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1235" t="inlineStr">
         <is>
           <t>2020-02-05 23:57:05</t>
@@ -82350,11 +78570,6 @@
       <c r="K1236" t="n">
         <v>1325</v>
       </c>
-      <c r="L1236" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1236" t="inlineStr">
         <is>
           <t>2020-02-07 20:02:13</t>
@@ -82386,11 +78601,6 @@
           <t>N980DW</t>
         </is>
       </c>
-      <c r="D1237" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1237" t="inlineStr">
         <is>
           <t>2020-02-07 21:21:45</t>
@@ -83618,11 +79828,6 @@
           <t>N363NH</t>
         </is>
       </c>
-      <c r="D1254" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1254" t="inlineStr">
         <is>
           <t>2020-02-11 15:30:05</t>
@@ -83682,11 +79887,6 @@
           <t>N363NH</t>
         </is>
       </c>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1255" t="inlineStr">
         <is>
           <t>2020-02-11 23:05:48</t>
@@ -83847,11 +80047,6 @@
       <c r="K1257" t="n">
         <v>975</v>
       </c>
-      <c r="L1257" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1257" t="inlineStr">
         <is>
           <t>2020-02-18 17:59:26</t>
@@ -83883,11 +80078,6 @@
           <t>N363NH</t>
         </is>
       </c>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1258" t="inlineStr">
         <is>
           <t>2020-02-18 22:46:55</t>
@@ -84048,11 +80238,6 @@
       <c r="K1260" t="n">
         <v>1200</v>
       </c>
-      <c r="L1260" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1260" t="inlineStr">
         <is>
           <t>2020-02-25 14:59:28</t>
@@ -84084,11 +80269,6 @@
           <t>N363NH</t>
         </is>
       </c>
-      <c r="D1261" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1261" t="inlineStr">
         <is>
           <t>2020-02-26 00:29:32</t>
@@ -84148,11 +80328,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1262" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1262" t="inlineStr">
         <is>
           <t>2020-02-05 12:58:38</t>
@@ -84167,11 +80342,6 @@
       <c r="K1262" t="n">
         <v>14875</v>
       </c>
-      <c r="L1262" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1262" t="inlineStr">
         <is>
           <t>2020-02-05 13:08:56</t>
@@ -84231,11 +80401,6 @@
       <c r="K1263" t="n">
         <v>1325</v>
       </c>
-      <c r="L1263" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1263" t="inlineStr">
         <is>
           <t>2020-02-05 22:03:21</t>
@@ -84267,11 +80432,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1264" t="inlineStr">
         <is>
           <t>2020-02-06 13:59:11</t>
@@ -84359,11 +80519,6 @@
       <c r="K1265" t="n">
         <v>2275</v>
       </c>
-      <c r="L1265" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1265" t="inlineStr">
         <is>
           <t>2020-02-06 18:53:44</t>
@@ -84395,11 +80550,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1266" t="inlineStr">
         <is>
           <t>2020-02-07 16:34:18</t>
@@ -84459,11 +80609,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1267" t="inlineStr">
         <is>
           <t>2020-02-12 12:29:06</t>
@@ -84551,11 +80696,6 @@
       <c r="K1268" t="n">
         <v>3050</v>
       </c>
-      <c r="L1268" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1268" t="inlineStr">
         <is>
           <t>2020-02-12 23:37:25</t>
@@ -84587,11 +80727,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1269" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1269" t="inlineStr">
         <is>
           <t>2020-02-13 12:36:03</t>
@@ -84651,11 +80786,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1270" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1270" t="inlineStr">
         <is>
           <t>2020-02-17 14:38:34</t>
@@ -84743,11 +80873,6 @@
       <c r="K1271" t="n">
         <v>500</v>
       </c>
-      <c r="L1271" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1271" t="inlineStr">
         <is>
           <t>2020-02-19 15:02:16</t>
@@ -84779,11 +80904,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1272" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1272" t="inlineStr">
         <is>
           <t>2020-02-19 21:46:01</t>
@@ -84843,11 +80963,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1273" t="inlineStr">
         <is>
           <t>2020-02-26 15:19:58</t>
@@ -84935,11 +81050,6 @@
       <c r="K1274" t="n">
         <v>1350</v>
       </c>
-      <c r="L1274" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1274" t="inlineStr">
         <is>
           <t>2020-02-26 17:21:05</t>
@@ -84971,11 +81081,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1275" t="inlineStr">
         <is>
           <t>2020-02-26 18:52:11</t>
@@ -85063,11 +81168,6 @@
       <c r="K1276" t="n">
         <v>1100</v>
       </c>
-      <c r="L1276" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1276" t="inlineStr">
         <is>
           <t>2020-02-28 14:27:40</t>
@@ -85099,11 +81199,6 @@
           <t>N671MD</t>
         </is>
       </c>
-      <c r="D1277" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1277" t="inlineStr">
         <is>
           <t>2020-02-28 16:37:37</t>
@@ -85309,11 +81404,6 @@
           <t>N159JS</t>
         </is>
       </c>
-      <c r="D1280" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1280" t="inlineStr">
         <is>
           <t>2020-02-03 23:24:15</t>
@@ -86249,11 +82339,6 @@
           <t>N246SD</t>
         </is>
       </c>
-      <c r="D1293" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1293" t="inlineStr">
         <is>
           <t>2020-02-15 00:00:03</t>
@@ -86341,11 +82426,6 @@
       <c r="K1294" t="n">
         <v>475</v>
       </c>
-      <c r="L1294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1294" t="inlineStr">
         <is>
           <t>2020-02-18 17:24:24</t>
@@ -86377,11 +82457,6 @@
           <t>N246SD</t>
         </is>
       </c>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1295" t="inlineStr">
         <is>
           <t>2020-02-18 18:51:20</t>
@@ -87025,11 +83100,6 @@
           <t>N555KK</t>
         </is>
       </c>
-      <c r="D1304" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1304" t="inlineStr">
         <is>
           <t>2020-02-07 17:22:30</t>
@@ -87235,11 +83305,6 @@
           <t>N124HJ</t>
         </is>
       </c>
-      <c r="D1307" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1307" t="inlineStr">
         <is>
           <t>2020-02-27 00:03:09</t>
@@ -87546,11 +83611,6 @@
       <c r="K1311" t="n">
         <v>1725</v>
       </c>
-      <c r="L1311" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M1311" t="inlineStr">
         <is>
           <t>2020-02-28 23:21:45</t>
@@ -87582,11 +83642,6 @@
           <t>N852SP</t>
         </is>
       </c>
-      <c r="D1312" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1312" t="inlineStr">
         <is>
           <t>2020-02-05 15:43:16</t>
@@ -87646,11 +83701,6 @@
           <t>N852SP</t>
         </is>
       </c>
-      <c r="D1313" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1313" t="inlineStr">
         <is>
           <t>2020-02-11 19:41:34</t>
@@ -87710,11 +83760,6 @@
           <t>N852SP</t>
         </is>
       </c>
-      <c r="D1314" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="E1314" t="inlineStr">
         <is>
           <t>2020-02-20 13:09:04</t>
@@ -87801,11 +83846,6 @@
       </c>
       <c r="K1315" t="n">
         <v>2175</v>
-      </c>
-      <c r="L1315" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="M1315" t="inlineStr">
         <is>
